--- a/src/Data/AutomationReport.xlsx
+++ b/src/Data/AutomationReport.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5378A075-900B-44FE-A3A2-232A7F4B898E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E1A8CA8C-ECBF-4031-9974-5637C5B925B3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="725" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="13" r:id="rId1"/>
     <sheet name="Detail Info" sheetId="12" r:id="rId2"/>
-    <sheet name="Chart Data" sheetId="8" r:id="rId3"/>
+    <sheet name="Data Table" sheetId="8" r:id="rId3"/>
     <sheet name="Summary" sheetId="6" r:id="rId4"/>
     <sheet name="Passed After ReRunning" sheetId="9" r:id="rId5"/>
     <sheet name="Failed After ReRunning" sheetId="10" r:id="rId6"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="250">
   <si>
     <t>Total</t>
   </si>
@@ -76,6 +76,12 @@
     <t>TDP Winter 2019 Sprint 2</t>
   </si>
   <si>
+    <t>07 Nov 2018</t>
+  </si>
+  <si>
+    <t>[TDP Winter 2019 Sprint 2] 07 Nov 2018</t>
+  </si>
+  <si>
     <t>SupplyDemandDemandCompensationLocationDetails</t>
   </si>
   <si>
@@ -751,7 +757,28 @@
     <t>Loadingreportlistformanagerusers</t>
   </si>
   <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>09 Nov 2018</t>
+  </si>
+  <si>
+    <t>[TDP Winter 2019 Sprint 2] 09 Nov 2018</t>
+  </si>
+  <si>
     <t>14 Nov 2018</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>[TDP Winter 2019 Sprint 2] 14 Nov 2018</t>
   </si>
 </sst>
 </file>
@@ -831,7 +858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -887,6 +914,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -989,7 +1022,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart Data'!$I$1</c:f>
+              <c:f>'Data Table'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1067,20 +1100,37 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>'Chart Data'!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
+            <c:strRef>
+              <c:f>'Data Table'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>[TDP Winter 2019 Sprint 2] 07 Nov 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[TDP Winter 2019 Sprint 2] 09 Nov 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[TDP Winter 2019 Sprint 2] 14 Nov 2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart Data'!$I$2:$I$11</c:f>
+              <c:f>'Data Table'!$I$2:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.70646766169154229</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1095,7 +1145,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart Data'!$J$1</c:f>
+              <c:f>'Data Table'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1176,20 +1226,37 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>'Chart Data'!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
+            <c:strRef>
+              <c:f>'Data Table'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>[TDP Winter 2019 Sprint 2] 07 Nov 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[TDP Winter 2019 Sprint 2] 09 Nov 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[TDP Winter 2019 Sprint 2] 14 Nov 2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart Data'!$J$2:$J$11</c:f>
+              <c:f>'Data Table'!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.9800995024875621E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4527363184079602E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1204,7 +1271,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart Data'!$K$1</c:f>
+              <c:f>'Data Table'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1282,20 +1349,37 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>'Chart Data'!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
+            <c:strRef>
+              <c:f>'Data Table'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>[TDP Winter 2019 Sprint 2] 07 Nov 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[TDP Winter 2019 Sprint 2] 09 Nov 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[TDP Winter 2019 Sprint 2] 14 Nov 2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart Data'!$K$2:$K$11</c:f>
+              <c:f>'Data Table'!$K$2:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.975124378109453E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1044776119402985</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1310,7 +1394,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart Data'!$L$1</c:f>
+              <c:f>'Data Table'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1388,20 +1472,37 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>'Chart Data'!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
+            <c:strRef>
+              <c:f>'Data Table'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>[TDP Winter 2019 Sprint 2] 07 Nov 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[TDP Winter 2019 Sprint 2] 09 Nov 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[TDP Winter 2019 Sprint 2] 14 Nov 2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart Data'!$L$2:$L$11</c:f>
+              <c:f>'Data Table'!$L$2:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.20398009950248755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13432835820895522</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1416,7 +1517,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart Data'!$M$1</c:f>
+              <c:f>'Data Table'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1496,20 +1597,37 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>'Chart Data'!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
+            <c:strRef>
+              <c:f>'Data Table'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>[TDP Winter 2019 Sprint 2] 07 Nov 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[TDP Winter 2019 Sprint 2] 09 Nov 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[TDP Winter 2019 Sprint 2] 14 Nov 2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart Data'!$M$2:$M$11</c:f>
+              <c:f>'Data Table'!$M$2:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1540,7 +1658,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="[$-409]d\-mmm\-yyyy;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1770,9 +1888,12 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart Data'!$A$3</c:f>
+              <c:f>'Data Table'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[TDP Winter 2019 Sprint 2] 09 Nov 2018</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1781,7 +1902,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1801,10 +1922,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1824,7 +1942,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1864,9 +1982,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="25000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1939,7 +2055,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Chart Data'!$I$1:$M$1</c:f>
+              <c:f>'Data Table'!$I$1:$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1962,10 +2078,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart Data'!$I$3:$M$3</c:f>
+              <c:f>'Data Table'!$I$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4527363184079602E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1044776119402985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13432835820895522</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2124,7 +2255,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart Data'!$A$9</c:f>
+              <c:f>'Data Table'!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -2293,7 +2424,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Chart Data'!$I$1:$M$1</c:f>
+              <c:f>'Data Table'!$I$1:$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2316,7 +2447,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart Data'!$I$9:$M$9</c:f>
+              <c:f>'Data Table'!$I$9:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2478,7 +2609,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart Data'!$A$10</c:f>
+              <c:f>'Data Table'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -2647,7 +2778,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Chart Data'!$I$1:$M$1</c:f>
+              <c:f>'Data Table'!$I$1:$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2670,7 +2801,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart Data'!$I$10:$M$10</c:f>
+              <c:f>'Data Table'!$I$10:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2832,7 +2963,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart Data'!$A$11</c:f>
+              <c:f>'Data Table'!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -3001,7 +3132,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Chart Data'!$I$1:$M$1</c:f>
+              <c:f>'Data Table'!$I$1:$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3024,7 +3155,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart Data'!$I$11:$M$11</c:f>
+              <c:f>'Data Table'!$I$11:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3187,7 +3318,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart Data'!$J$1</c:f>
+              <c:f>'Data Table'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3282,20 +3413,37 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>'Chart Data'!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
+            <c:strRef>
+              <c:f>'Data Table'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>[TDP Winter 2019 Sprint 2] 07 Nov 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[TDP Winter 2019 Sprint 2] 09 Nov 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[TDP Winter 2019 Sprint 2] 14 Nov 2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart Data'!$J$2:$J$11</c:f>
+              <c:f>'Data Table'!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.9800995024875621E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4527363184079602E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3327,7 +3475,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="[$-409]d\-mmm\-yyyy;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3559,7 +3707,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart Data'!$K$1</c:f>
+              <c:f>'Data Table'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3651,20 +3799,37 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>'Chart Data'!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
+            <c:strRef>
+              <c:f>'Data Table'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>[TDP Winter 2019 Sprint 2] 07 Nov 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[TDP Winter 2019 Sprint 2] 09 Nov 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[TDP Winter 2019 Sprint 2] 14 Nov 2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart Data'!$K$2:$K$11</c:f>
+              <c:f>'Data Table'!$K$2:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.975124378109453E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1044776119402985</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3680,7 +3845,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart Data'!$L$1</c:f>
+              <c:f>'Data Table'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3772,20 +3937,37 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>'Chart Data'!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
+            <c:strRef>
+              <c:f>'Data Table'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>[TDP Winter 2019 Sprint 2] 07 Nov 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[TDP Winter 2019 Sprint 2] 09 Nov 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[TDP Winter 2019 Sprint 2] 14 Nov 2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart Data'!$L$2:$L$11</c:f>
+              <c:f>'Data Table'!$L$2:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.20398009950248755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13432835820895522</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3817,7 +3999,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="[$-409]d\-mmm\-yyyy;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4054,9 +4236,12 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart Data'!$A$2</c:f>
+              <c:f>'Data Table'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[TDP Winter 2019 Sprint 2] 07 Nov 2018</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4065,7 +4250,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -4085,10 +4270,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -4099,7 +4281,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-ECA9-41A8-8D3B-C3D9CFA3EFC5}"/>
+                <c16:uniqueId val="{00000003-4C4E-4B94-A648-54FD02C810D9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4108,7 +4290,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -4119,7 +4301,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000A-ECA9-41A8-8D3B-C3D9CFA3EFC5}"/>
+                <c16:uniqueId val="{00000005-4C4E-4B94-A648-54FD02C810D9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4139,7 +4321,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-4CEF-45E5-9382-5A87D8CEF0E3}"/>
+                <c16:uniqueId val="{00000007-4C4E-4B94-A648-54FD02C810D9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4148,9 +4330,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="25000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -4161,7 +4341,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-ECA9-41A8-8D3B-C3D9CFA3EFC5}"/>
+                <c16:uniqueId val="{00000009-4C4E-4B94-A648-54FD02C810D9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4223,7 +4403,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Chart Data'!$I$1:$M$1</c:f>
+              <c:f>'Data Table'!$I$1:$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4246,10 +4426,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart Data'!$I$2:$M$2</c:f>
+              <c:f>'Data Table'!$I$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.70646766169154229</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9800995024875621E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.975124378109453E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20398009950248755</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4408,7 +4603,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart Data'!$A$7</c:f>
+              <c:f>'Data Table'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -4577,7 +4772,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Chart Data'!$I$1:$M$1</c:f>
+              <c:f>'Data Table'!$I$1:$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4600,7 +4795,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart Data'!$I$7:$M$7</c:f>
+              <c:f>'Data Table'!$I$7:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4762,7 +4957,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart Data'!$A$6</c:f>
+              <c:f>'Data Table'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -4931,7 +5126,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Chart Data'!$I$1:$M$1</c:f>
+              <c:f>'Data Table'!$I$1:$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4954,7 +5149,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart Data'!$I$6:$M$6</c:f>
+              <c:f>'Data Table'!$I$6:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5116,9 +5311,12 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart Data'!$A$4</c:f>
+              <c:f>'Data Table'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[TDP Winter 2019 Sprint 2] 14 Nov 2018</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -5127,7 +5325,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -5147,10 +5345,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -5170,7 +5365,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -5210,9 +5405,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="25000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -5285,7 +5478,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Chart Data'!$I$1:$M$1</c:f>
+              <c:f>'Data Table'!$I$1:$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5308,10 +5501,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart Data'!$I$4:$M$4</c:f>
+              <c:f>'Data Table'!$I$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5470,7 +5678,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart Data'!$A$5</c:f>
+              <c:f>'Data Table'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -5639,7 +5847,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Chart Data'!$I$1:$M$1</c:f>
+              <c:f>'Data Table'!$I$1:$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5662,7 +5870,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart Data'!$I$5:$M$5</c:f>
+              <c:f>'Data Table'!$I$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5824,7 +6032,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart Data'!$A$8</c:f>
+              <c:f>'Data Table'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -5993,7 +6201,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Chart Data'!$I$1:$M$1</c:f>
+              <c:f>'Data Table'!$I$1:$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6016,7 +6224,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart Data'!$I$8:$M$8</c:f>
+              <c:f>'Data Table'!$I$8:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -14012,7 +14220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E07661C-7398-44FF-B84A-22EA52D99A0B}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14034,7 +14242,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -14045,1291 +14253,3547 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3CD388-D703-4D3C-A1F7-89D03A429D44}">
-  <dimension ref="A1:G203"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="19" collapsed="1"/>
     <col min="2" max="3" width="37.140625" style="19" customWidth="1" collapsed="1"/>
-    <col min="4" max="7" width="9.140625" style="19"/>
+    <col min="4" max="5" width="13.85546875" style="19" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="13.7109375" style="19" customWidth="1" collapsed="1"/>
     <col min="8" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="22" t="e">
+        <f>COUNTIF('Detail Info'!#REF!, "Passed on Sauce Lab")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" s="22" t="e">
+        <f>COUNTIF('Detail Info'!#REF!, "Passed After Re-Running")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="H2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39"/>
+      <c r="H39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40"/>
+      <c r="H40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42"/>
+      <c r="H42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46"/>
+      <c r="H46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48"/>
+      <c r="H48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49"/>
+      <c r="H49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" t="s">
+        <v>248</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50"/>
+      <c r="H50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>74</v>
       </c>
-      <c r="C47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>72</v>
-      </c>
       <c r="C51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51"/>
+      <c r="H51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52"/>
+      <c r="H52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53"/>
+      <c r="F53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53"/>
+      <c r="H53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54"/>
+      <c r="H54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56"/>
+      <c r="H56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57"/>
+      <c r="H57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60"/>
+      <c r="H60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>88</v>
-      </c>
       <c r="C61" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61"/>
+      <c r="H61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62"/>
+      <c r="F62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62"/>
+      <c r="H62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C63" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63"/>
+      <c r="H63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64"/>
+      <c r="H64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65" t="s">
+        <v>4</v>
+      </c>
+      <c r="G65"/>
+      <c r="H65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C66" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66"/>
+      <c r="H66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67"/>
+      <c r="H67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68"/>
+      <c r="H68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>105</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69"/>
+      <c r="H69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70"/>
+      <c r="H70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71"/>
+      <c r="H71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72"/>
+      <c r="H72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73"/>
+      <c r="H73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74"/>
+      <c r="H74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>112</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75"/>
+      <c r="H75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76"/>
+      <c r="H76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77"/>
+      <c r="H77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>116</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78"/>
+      <c r="H78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>117</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79" t="s">
+        <v>4</v>
+      </c>
+      <c r="G79"/>
+      <c r="H79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>118</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80"/>
+      <c r="F80" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80"/>
+      <c r="H80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81"/>
+      <c r="H81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>120</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82"/>
+      <c r="H82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>121</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83"/>
+      <c r="H83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" t="s">
+        <v>122</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84"/>
+      <c r="H84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>123</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85"/>
+      <c r="H85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>124</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86" t="s">
+        <v>4</v>
+      </c>
+      <c r="G86"/>
+      <c r="H86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>125</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87" t="s">
+        <v>4</v>
+      </c>
+      <c r="G87"/>
+      <c r="H87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>126</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88" t="s">
+        <v>4</v>
+      </c>
+      <c r="G88"/>
+      <c r="H88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>127</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89"/>
+      <c r="H89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" t="s">
+        <v>105</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90" t="s">
+        <v>4</v>
+      </c>
+      <c r="G90"/>
+      <c r="H90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91"/>
+      <c r="H91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>129</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92" t="s">
+        <v>4</v>
+      </c>
+      <c r="G92"/>
+      <c r="H92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>130</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93"/>
+      <c r="F93" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93"/>
+      <c r="H93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>104</v>
-      </c>
-      <c r="C70" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>112</v>
-      </c>
-      <c r="C77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>112</v>
-      </c>
-      <c r="C84" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>126</v>
-      </c>
-      <c r="C90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
+      <c r="D94" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94"/>
+      <c r="H94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>131</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95" t="s">
+        <v>4</v>
+      </c>
+      <c r="G95"/>
+      <c r="H95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>132</v>
+      </c>
+      <c r="D96" t="s">
+        <v>248</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96"/>
+      <c r="H96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>133</v>
+      </c>
+      <c r="D97" t="s">
+        <v>248</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97"/>
+      <c r="H97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>134</v>
+      </c>
+      <c r="D98" t="s">
+        <v>248</v>
+      </c>
+      <c r="E98"/>
+      <c r="F98" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98"/>
+      <c r="H98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>135</v>
+      </c>
+      <c r="C99" t="s">
+        <v>136</v>
+      </c>
+      <c r="D99" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99"/>
+      <c r="F99" t="s">
+        <v>4</v>
+      </c>
+      <c r="G99"/>
+      <c r="H99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>136</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100"/>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100"/>
+      <c r="H100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>137</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101"/>
+      <c r="F101" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101"/>
+      <c r="H101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>138</v>
+      </c>
+      <c r="C102" t="s">
+        <v>139</v>
+      </c>
+      <c r="D102" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102"/>
+      <c r="F102" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102"/>
+      <c r="H102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>140</v>
+      </c>
+      <c r="D103" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103"/>
+      <c r="F103" t="s">
+        <v>4</v>
+      </c>
+      <c r="G103"/>
+      <c r="H103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>141</v>
+      </c>
+      <c r="D104" t="s">
+        <v>248</v>
+      </c>
+      <c r="E104"/>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104"/>
+      <c r="H104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>142</v>
+      </c>
+      <c r="D105" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105"/>
+      <c r="F105" t="s">
+        <v>4</v>
+      </c>
+      <c r="G105"/>
+      <c r="H105" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>143</v>
+      </c>
+      <c r="D106" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106"/>
+      <c r="F106" t="s">
+        <v>4</v>
+      </c>
+      <c r="G106"/>
+      <c r="H106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>144</v>
+      </c>
+      <c r="D107" t="s">
+        <v>4</v>
+      </c>
+      <c r="E107"/>
+      <c r="F107" t="s">
+        <v>4</v>
+      </c>
+      <c r="G107"/>
+      <c r="H107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>145</v>
+      </c>
+      <c r="C108" t="s">
+        <v>146</v>
+      </c>
+      <c r="D108" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108"/>
+      <c r="F108" t="s">
+        <v>4</v>
+      </c>
+      <c r="G108"/>
+      <c r="H108" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C98" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>133</v>
-      </c>
-      <c r="C99" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>136</v>
-      </c>
-      <c r="C102" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C104" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C105" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C106" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C107" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>143</v>
-      </c>
-      <c r="C108" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>126</v>
-      </c>
       <c r="C109" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="D109" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109"/>
+      <c r="F109" t="s">
+        <v>4</v>
+      </c>
+      <c r="G109"/>
+      <c r="H109" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="D110" t="s">
+        <v>4</v>
+      </c>
+      <c r="E110"/>
+      <c r="F110" t="s">
+        <v>4</v>
+      </c>
+      <c r="G110"/>
+      <c r="H110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="D111" t="s">
+        <v>248</v>
+      </c>
+      <c r="E111"/>
+      <c r="F111" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111"/>
+      <c r="H111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C112" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="D112" t="s">
+        <v>4</v>
+      </c>
+      <c r="E112"/>
+      <c r="F112" t="s">
+        <v>4</v>
+      </c>
+      <c r="G112"/>
+      <c r="H112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="D113" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113"/>
+      <c r="F113" t="s">
+        <v>4</v>
+      </c>
+      <c r="G113"/>
+      <c r="H113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="D114" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114"/>
+      <c r="F114" t="s">
+        <v>4</v>
+      </c>
+      <c r="G114"/>
+      <c r="H114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115"/>
+      <c r="F115" t="s">
+        <v>4</v>
+      </c>
+      <c r="G115"/>
+      <c r="H115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="D116" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116"/>
+      <c r="F116" t="s">
+        <v>4</v>
+      </c>
+      <c r="G116"/>
+      <c r="H116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="D117" t="s">
+        <v>4</v>
+      </c>
+      <c r="E117"/>
+      <c r="F117" t="s">
+        <v>4</v>
+      </c>
+      <c r="G117"/>
+      <c r="H117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="D118" t="s">
+        <v>248</v>
+      </c>
+      <c r="E118"/>
+      <c r="F118" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118"/>
+      <c r="H118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="D119" t="s">
+        <v>248</v>
+      </c>
+      <c r="E119"/>
+      <c r="F119" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119"/>
+      <c r="H119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C120" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="D120" t="s">
+        <v>4</v>
+      </c>
+      <c r="E120"/>
+      <c r="F120" t="s">
+        <v>4</v>
+      </c>
+      <c r="G120"/>
+      <c r="H120" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4</v>
+      </c>
+      <c r="E121"/>
+      <c r="F121" t="s">
+        <v>4</v>
+      </c>
+      <c r="G121"/>
+      <c r="H121" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122"/>
+      <c r="F122" t="s">
+        <v>4</v>
+      </c>
+      <c r="G122"/>
+      <c r="H122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="D123" t="s">
+        <v>248</v>
+      </c>
+      <c r="E123"/>
+      <c r="F123" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123"/>
+      <c r="H123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C124" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124"/>
+      <c r="F124" t="s">
+        <v>4</v>
+      </c>
+      <c r="G124"/>
+      <c r="H124" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4</v>
+      </c>
+      <c r="E125"/>
+      <c r="F125" t="s">
+        <v>4</v>
+      </c>
+      <c r="G125"/>
+      <c r="H125" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C126" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126"/>
+      <c r="F126" t="s">
+        <v>4</v>
+      </c>
+      <c r="G126"/>
+      <c r="H126" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="D127" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127"/>
+      <c r="F127" t="s">
+        <v>4</v>
+      </c>
+      <c r="G127"/>
+      <c r="H127" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="D128" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128"/>
+      <c r="F128" t="s">
+        <v>4</v>
+      </c>
+      <c r="G128"/>
+      <c r="H128" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129"/>
+      <c r="F129" t="s">
+        <v>4</v>
+      </c>
+      <c r="G129"/>
+      <c r="H129" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130"/>
+      <c r="F130" t="s">
+        <v>4</v>
+      </c>
+      <c r="G130"/>
+      <c r="H130" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="D131" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131"/>
+      <c r="F131" t="s">
+        <v>4</v>
+      </c>
+      <c r="G131"/>
+      <c r="H131" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C132" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="D132" t="s">
+        <v>248</v>
+      </c>
+      <c r="E132"/>
+      <c r="F132" t="s">
+        <v>5</v>
+      </c>
+      <c r="G132"/>
+      <c r="H132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D133" t="s">
+        <v>248</v>
+      </c>
+      <c r="E133"/>
+      <c r="F133" t="s">
+        <v>5</v>
+      </c>
+      <c r="G133"/>
+      <c r="H133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D134" t="s">
+        <v>248</v>
+      </c>
+      <c r="E134"/>
+      <c r="F134" t="s">
+        <v>5</v>
+      </c>
+      <c r="G134"/>
+      <c r="H134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D135" t="s">
+        <v>248</v>
+      </c>
+      <c r="E135"/>
+      <c r="F135" t="s">
+        <v>5</v>
+      </c>
+      <c r="G135"/>
+      <c r="H135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D136" t="s">
+        <v>4</v>
+      </c>
+      <c r="E136"/>
+      <c r="F136" t="s">
+        <v>4</v>
+      </c>
+      <c r="G136"/>
+      <c r="H136" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D137" t="s">
+        <v>248</v>
+      </c>
+      <c r="E137"/>
+      <c r="F137" t="s">
+        <v>8</v>
+      </c>
+      <c r="G137"/>
+      <c r="H137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D138" t="s">
+        <v>248</v>
+      </c>
+      <c r="E138"/>
+      <c r="F138" t="s">
+        <v>8</v>
+      </c>
+      <c r="G138"/>
+      <c r="H138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D139" t="s">
+        <v>248</v>
+      </c>
+      <c r="E139"/>
+      <c r="F139" t="s">
+        <v>8</v>
+      </c>
+      <c r="G139"/>
+      <c r="H139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D140" t="s">
+        <v>248</v>
+      </c>
+      <c r="E140"/>
+      <c r="F140" t="s">
+        <v>8</v>
+      </c>
+      <c r="G140"/>
+      <c r="H140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D141" t="s">
+        <v>248</v>
+      </c>
+      <c r="E141"/>
+      <c r="F141" t="s">
+        <v>8</v>
+      </c>
+      <c r="G141"/>
+      <c r="H141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D142" t="s">
+        <v>248</v>
+      </c>
+      <c r="E142"/>
+      <c r="F142" t="s">
+        <v>5</v>
+      </c>
+      <c r="G142"/>
+      <c r="H142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D143" t="s">
+        <v>248</v>
+      </c>
+      <c r="E143"/>
+      <c r="F143" t="s">
+        <v>5</v>
+      </c>
+      <c r="G143"/>
+      <c r="H143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D144" t="s">
+        <v>248</v>
+      </c>
+      <c r="E144"/>
+      <c r="F144" t="s">
+        <v>8</v>
+      </c>
+      <c r="G144"/>
+      <c r="H144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D145" t="s">
+        <v>248</v>
+      </c>
+      <c r="E145"/>
+      <c r="F145" t="s">
+        <v>8</v>
+      </c>
+      <c r="G145"/>
+      <c r="H145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D146" t="s">
+        <v>248</v>
+      </c>
+      <c r="E146"/>
+      <c r="F146" t="s">
+        <v>8</v>
+      </c>
+      <c r="G146"/>
+      <c r="H146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D147" t="s">
+        <v>248</v>
+      </c>
+      <c r="E147"/>
+      <c r="F147" t="s">
+        <v>5</v>
+      </c>
+      <c r="G147"/>
+      <c r="H147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D148" t="s">
+        <v>248</v>
+      </c>
+      <c r="E148"/>
+      <c r="F148" t="s">
+        <v>8</v>
+      </c>
+      <c r="G148"/>
+      <c r="H148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D149" t="s">
+        <v>248</v>
+      </c>
+      <c r="E149"/>
+      <c r="F149" t="s">
+        <v>5</v>
+      </c>
+      <c r="G149"/>
+      <c r="H149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D150" t="s">
+        <v>248</v>
+      </c>
+      <c r="E150"/>
+      <c r="F150" t="s">
+        <v>5</v>
+      </c>
+      <c r="G150"/>
+      <c r="H150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D151" t="s">
+        <v>248</v>
+      </c>
+      <c r="E151"/>
+      <c r="F151" t="s">
+        <v>5</v>
+      </c>
+      <c r="G151"/>
+      <c r="H151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D152" t="s">
+        <v>248</v>
+      </c>
+      <c r="E152"/>
+      <c r="F152" t="s">
+        <v>5</v>
+      </c>
+      <c r="G152"/>
+      <c r="H152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D153" t="s">
+        <v>248</v>
+      </c>
+      <c r="E153"/>
+      <c r="F153" t="s">
+        <v>5</v>
+      </c>
+      <c r="G153"/>
+      <c r="H153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D154" t="s">
+        <v>248</v>
+      </c>
+      <c r="E154"/>
+      <c r="F154" t="s">
+        <v>5</v>
+      </c>
+      <c r="G154"/>
+      <c r="H154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D155" t="s">
+        <v>248</v>
+      </c>
+      <c r="E155"/>
+      <c r="F155" t="s">
+        <v>5</v>
+      </c>
+      <c r="G155"/>
+      <c r="H155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D156" t="s">
+        <v>248</v>
+      </c>
+      <c r="E156"/>
+      <c r="F156" t="s">
+        <v>5</v>
+      </c>
+      <c r="G156"/>
+      <c r="H156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D157" t="s">
+        <v>248</v>
+      </c>
+      <c r="E157"/>
+      <c r="F157" t="s">
+        <v>5</v>
+      </c>
+      <c r="G157"/>
+      <c r="H157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C158" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="D158" t="s">
+        <v>248</v>
+      </c>
+      <c r="E158"/>
+      <c r="F158" t="s">
+        <v>5</v>
+      </c>
+      <c r="G158"/>
+      <c r="H158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="D159" t="s">
+        <v>248</v>
+      </c>
+      <c r="E159"/>
+      <c r="F159" t="s">
+        <v>5</v>
+      </c>
+      <c r="G159"/>
+      <c r="H159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C160" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="D160" t="s">
+        <v>248</v>
+      </c>
+      <c r="E160"/>
+      <c r="F160" t="s">
+        <v>5</v>
+      </c>
+      <c r="G160"/>
+      <c r="H160" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="D161" t="s">
+        <v>248</v>
+      </c>
+      <c r="E161"/>
+      <c r="F161" t="s">
+        <v>5</v>
+      </c>
+      <c r="G161"/>
+      <c r="H161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C162" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="D162" t="s">
+        <v>248</v>
+      </c>
+      <c r="E162"/>
+      <c r="F162" t="s">
+        <v>5</v>
+      </c>
+      <c r="G162"/>
+      <c r="H162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D163" t="s">
+        <v>248</v>
+      </c>
+      <c r="E163"/>
+      <c r="F163" t="s">
+        <v>5</v>
+      </c>
+      <c r="G163"/>
+      <c r="H163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D164" t="s">
+        <v>248</v>
+      </c>
+      <c r="E164"/>
+      <c r="F164" t="s">
+        <v>5</v>
+      </c>
+      <c r="G164"/>
+      <c r="H164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C165" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="D165" t="s">
+        <v>248</v>
+      </c>
+      <c r="E165"/>
+      <c r="F165" t="s">
+        <v>5</v>
+      </c>
+      <c r="G165"/>
+      <c r="H165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="D166" t="s">
+        <v>248</v>
+      </c>
+      <c r="E166"/>
+      <c r="F166" t="s">
+        <v>5</v>
+      </c>
+      <c r="G166"/>
+      <c r="H166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D167" t="s">
+        <v>248</v>
+      </c>
+      <c r="E167"/>
+      <c r="F167" t="s">
+        <v>5</v>
+      </c>
+      <c r="G167"/>
+      <c r="H167" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D168" t="s">
+        <v>248</v>
+      </c>
+      <c r="E168"/>
+      <c r="F168" t="s">
+        <v>5</v>
+      </c>
+      <c r="G168"/>
+      <c r="H168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C169" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="D169" t="s">
+        <v>4</v>
+      </c>
+      <c r="E169"/>
+      <c r="F169" t="s">
+        <v>4</v>
+      </c>
+      <c r="G169"/>
+      <c r="H169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C170" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="D170" t="s">
+        <v>4</v>
+      </c>
+      <c r="E170"/>
+      <c r="F170" t="s">
+        <v>4</v>
+      </c>
+      <c r="G170"/>
+      <c r="H170" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="D171" t="s">
+        <v>4</v>
+      </c>
+      <c r="E171"/>
+      <c r="F171" t="s">
+        <v>4</v>
+      </c>
+      <c r="G171"/>
+      <c r="H171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D172" t="s">
+        <v>248</v>
+      </c>
+      <c r="E172"/>
+      <c r="F172" t="s">
+        <v>6</v>
+      </c>
+      <c r="G172"/>
+      <c r="H172" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D173" t="s">
+        <v>248</v>
+      </c>
+      <c r="E173"/>
+      <c r="F173" t="s">
+        <v>6</v>
+      </c>
+      <c r="G173"/>
+      <c r="H173" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D174" t="s">
+        <v>248</v>
+      </c>
+      <c r="E174"/>
+      <c r="F174" t="s">
+        <v>6</v>
+      </c>
+      <c r="G174"/>
+      <c r="H174" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D175" t="s">
+        <v>248</v>
+      </c>
+      <c r="E175"/>
+      <c r="F175" t="s">
+        <v>6</v>
+      </c>
+      <c r="G175"/>
+      <c r="H175" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D176" t="s">
+        <v>248</v>
+      </c>
+      <c r="E176"/>
+      <c r="F176" t="s">
+        <v>6</v>
+      </c>
+      <c r="G176"/>
+      <c r="H176" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D177" t="s">
+        <v>248</v>
+      </c>
+      <c r="E177"/>
+      <c r="F177" t="s">
+        <v>6</v>
+      </c>
+      <c r="G177"/>
+      <c r="H177" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D178" t="s">
+        <v>248</v>
+      </c>
+      <c r="E178"/>
+      <c r="F178" t="s">
+        <v>6</v>
+      </c>
+      <c r="G178"/>
+      <c r="H178" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D179" t="s">
+        <v>248</v>
+      </c>
+      <c r="E179"/>
+      <c r="F179" t="s">
+        <v>6</v>
+      </c>
+      <c r="G179"/>
+      <c r="H179" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D180" t="s">
+        <v>248</v>
+      </c>
+      <c r="E180"/>
+      <c r="F180" t="s">
+        <v>6</v>
+      </c>
+      <c r="G180"/>
+      <c r="H180" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D181" t="s">
+        <v>248</v>
+      </c>
+      <c r="E181"/>
+      <c r="F181" t="s">
+        <v>6</v>
+      </c>
+      <c r="G181"/>
+      <c r="H181" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C182" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="D182" t="s">
+        <v>4</v>
+      </c>
+      <c r="E182"/>
+      <c r="F182" t="s">
+        <v>4</v>
+      </c>
+      <c r="G182"/>
+      <c r="H182" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C183" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="D183" t="s">
+        <v>4</v>
+      </c>
+      <c r="E183"/>
+      <c r="F183" t="s">
+        <v>4</v>
+      </c>
+      <c r="G183"/>
+      <c r="H183" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C184" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="D184" t="s">
+        <v>4</v>
+      </c>
+      <c r="E184"/>
+      <c r="F184" t="s">
+        <v>4</v>
+      </c>
+      <c r="G184"/>
+      <c r="H184" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C185" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="D185" t="s">
+        <v>4</v>
+      </c>
+      <c r="E185"/>
+      <c r="F185" t="s">
+        <v>4</v>
+      </c>
+      <c r="G185"/>
+      <c r="H185" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C186" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="D186" t="s">
+        <v>4</v>
+      </c>
+      <c r="E186"/>
+      <c r="F186" t="s">
+        <v>4</v>
+      </c>
+      <c r="G186"/>
+      <c r="H186" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C187" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="D187" t="s">
+        <v>248</v>
+      </c>
+      <c r="E187"/>
+      <c r="F187" t="s">
+        <v>6</v>
+      </c>
+      <c r="G187"/>
+      <c r="H187" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C188" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="D188" t="s">
+        <v>4</v>
+      </c>
+      <c r="E188"/>
+      <c r="F188" t="s">
+        <v>4</v>
+      </c>
+      <c r="G188"/>
+      <c r="H188" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="D189" t="s">
+        <v>248</v>
+      </c>
+      <c r="E189"/>
+      <c r="F189" t="s">
+        <v>6</v>
+      </c>
+      <c r="G189"/>
+      <c r="H189" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C190" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="D190" t="s">
+        <v>248</v>
+      </c>
+      <c r="E190"/>
+      <c r="F190" t="s">
+        <v>6</v>
+      </c>
+      <c r="G190"/>
+      <c r="H190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="D191" t="s">
+        <v>248</v>
+      </c>
+      <c r="E191"/>
+      <c r="F191" t="s">
+        <v>6</v>
+      </c>
+      <c r="G191"/>
+      <c r="H191" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C192" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="D192" t="s">
+        <v>248</v>
+      </c>
+      <c r="E192"/>
+      <c r="F192" t="s">
+        <v>6</v>
+      </c>
+      <c r="G192"/>
+      <c r="H192" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C193" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="D193" t="s">
+        <v>248</v>
+      </c>
+      <c r="E193"/>
+      <c r="F193" t="s">
+        <v>6</v>
+      </c>
+      <c r="G193"/>
+      <c r="H193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C194" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="D194" t="s">
+        <v>248</v>
+      </c>
+      <c r="E194"/>
+      <c r="F194" t="s">
+        <v>6</v>
+      </c>
+      <c r="G194"/>
+      <c r="H194" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C195" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="D195" t="s">
+        <v>248</v>
+      </c>
+      <c r="E195"/>
+      <c r="F195" t="s">
+        <v>6</v>
+      </c>
+      <c r="G195"/>
+      <c r="H195" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C196" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="D196" t="s">
+        <v>248</v>
+      </c>
+      <c r="E196"/>
+      <c r="F196" t="s">
+        <v>6</v>
+      </c>
+      <c r="G196"/>
+      <c r="H196" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C197" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="D197" t="s">
+        <v>248</v>
+      </c>
+      <c r="E197"/>
+      <c r="F197" t="s">
+        <v>6</v>
+      </c>
+      <c r="G197"/>
+      <c r="H197" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C198" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="D198" t="s">
+        <v>4</v>
+      </c>
+      <c r="E198"/>
+      <c r="F198" t="s">
+        <v>4</v>
+      </c>
+      <c r="G198"/>
+      <c r="H198" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C199" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="D199" t="s">
+        <v>4</v>
+      </c>
+      <c r="E199"/>
+      <c r="F199" t="s">
+        <v>4</v>
+      </c>
+      <c r="G199"/>
+      <c r="H199" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C200" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="D200" t="s">
+        <v>4</v>
+      </c>
+      <c r="E200"/>
+      <c r="F200" t="s">
+        <v>4</v>
+      </c>
+      <c r="G200"/>
+      <c r="H200" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C201" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="D201" t="s">
+        <v>4</v>
+      </c>
+      <c r="E201"/>
+      <c r="F201" t="s">
+        <v>4</v>
+      </c>
+      <c r="G201"/>
+      <c r="H201" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C202" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="D202" t="s">
+        <v>248</v>
+      </c>
+      <c r="E202"/>
+      <c r="F202" t="s">
+        <v>6</v>
+      </c>
+      <c r="G202"/>
+      <c r="H202" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C203" t="s">
-        <v>239</v>
+        <v>241</v>
+      </c>
+      <c r="D203" t="s">
+        <v>4</v>
+      </c>
+      <c r="E203"/>
+      <c r="F203" t="s">
+        <v>4</v>
+      </c>
+      <c r="G203"/>
+      <c r="H203" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -15348,7 +17812,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15413,50 +17877,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="14"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="14"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
+    <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="10">
+        <f>COUNTIF('Detail Info'!H:H, "Passed on Sauce Lab")</f>
+        <v>142</v>
+      </c>
+      <c r="C2" s="10">
+        <f>COUNTIF('Detail Info'!H:H, "Passed After Re-Running")</f>
+        <v>8</v>
+      </c>
+      <c r="D2" s="10">
+        <f>COUNTIF('Detail Info'!H:H, "Failed By Bug")</f>
+        <v>10</v>
+      </c>
+      <c r="E2" s="10">
+        <f>COUNTIF('Detail Info'!H:H, "Failed By Script")</f>
+        <v>41</v>
+      </c>
+      <c r="F2" s="10">
+        <f>COUNTIF('Detail Info'!H:H, "Not Run on Sauce Lab")</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <f>COUNTA('Detail Info'!C:C)-2</f>
+        <v>201</v>
+      </c>
+      <c r="I2" s="13">
+        <f>B2/G2</f>
+        <v>0.70646766169154229</v>
+      </c>
+      <c r="J2" s="13">
+        <f>C2/G2</f>
+        <v>3.9800995024875621E-2</v>
+      </c>
+      <c r="K2" s="13">
+        <f>D2/G2</f>
+        <v>4.975124378109453E-2</v>
+      </c>
+      <c r="L2" s="13">
+        <f>E2/G2</f>
+        <v>0.20398009950248755</v>
+      </c>
+      <c r="M2" s="13">
+        <f>F2/G2</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="13">
+        <f>SUM(I2:M2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="10">
+        <f>COUNTIF('Detail Info'!F:F, "Passed on Sauce Lab")</f>
+        <v>134</v>
+      </c>
+      <c r="C3" s="10">
+        <f>COUNTIF('Detail Info'!F:F, "Passed After Re-Running")</f>
+        <v>19</v>
+      </c>
+      <c r="D3" s="10">
+        <f>COUNTIF('Detail Info'!F:F, "Failed By Bug")</f>
+        <v>21</v>
+      </c>
+      <c r="E3" s="10">
+        <f>COUNTIF('Detail Info'!F:F, "Failed By Script")</f>
+        <v>27</v>
+      </c>
+      <c r="F3" s="10">
+        <f>COUNTIF('Detail Info'!F:F, "Not Run on Sauce Lab")</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <f>COUNTA('Detail Info'!C:C)-2</f>
+        <v>201</v>
+      </c>
+      <c r="I3" s="13">
+        <f>B3/G3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J3" s="13">
+        <f>C3/G3</f>
+        <v>9.4527363184079602E-2</v>
+      </c>
+      <c r="K3" s="13">
+        <f>D3/G3</f>
+        <v>0.1044776119402985</v>
+      </c>
+      <c r="L3" s="13">
+        <f>E3/G3</f>
+        <v>0.13432835820895522</v>
+      </c>
+      <c r="M3" s="13">
+        <f>F3/G3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="13">
+        <f>SUM(I3:M3)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="14"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
+      <c r="A4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="10">
+        <f>COUNTIF('Detail Info'!D:D, "Passed on Sauce Lab")</f>
+        <v>134</v>
+      </c>
+      <c r="C4" s="10">
+        <f>COUNTIF('Detail Info'!D:D, "Passed After Re-Running")</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <f>COUNTIF('Detail Info'!D:D, "Failed By Bug")</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <f>COUNTIF('Detail Info'!D:D, "Failed By Script")</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <f>COUNTIF('Detail Info'!D:D, "Not Run on Sauce Lab")</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <f>COUNTA('Detail Info'!C:C)-2</f>
+        <v>201</v>
+      </c>
+      <c r="I4" s="13">
+        <f>B4/G4</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J4" s="13">
+        <f>C4/G4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="13">
+        <f>D4/G4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="13">
+        <f>E4/G4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
+        <f>F4/G4</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="13">
+        <f>SUM(I4:M4)</f>
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -15573,7 +18151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1143935-24CF-4E8D-9B0A-7AA9085B9B12}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>

--- a/src/Data/AutomationReport.xlsx
+++ b/src/Data/AutomationReport.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E1A8CA8C-ECBF-4031-9974-5637C5B925B3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3185B334-F744-4FF9-8A59-121990DFBC9B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="725" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="13" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Detail Chart" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Detail Info'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Detail Info'!$D$1:$D$203</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="249">
   <si>
     <t>Total</t>
   </si>
@@ -773,9 +773,6 @@
   </si>
   <si>
     <t>14 Nov 2018</t>
-  </si>
-  <si>
-    <t>Failed</t>
   </si>
   <si>
     <t>[TDP Winter 2019 Sprint 2] 14 Nov 2018</t>
@@ -1255,7 +1252,7 @@
                   <c:v>9.4527363184079602E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7.4626865671641784E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1378,7 +1375,7 @@
                   <c:v>0.1044776119402985</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.482587064676617E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1501,7 +1498,7 @@
                   <c:v>0.13432835820895522</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.1890547263681592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1626,7 +1623,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.482587064676617E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1902,7 +1899,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1922,7 +1919,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1942,7 +1942,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1982,7 +1982,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -3442,7 +3444,7 @@
                   <c:v>9.4527363184079602E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7.4626865671641784E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3828,7 +3830,7 @@
                   <c:v>0.1044776119402985</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.482587064676617E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3966,7 +3968,7 @@
                   <c:v>0.13432835820895522</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.1890547263681592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4250,7 +4252,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -4270,7 +4272,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -4290,7 +4295,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -4330,7 +4335,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -5325,7 +5332,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -5345,7 +5352,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -5365,7 +5375,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -5405,7 +5415,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -5509,16 +5521,16 @@
                   <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7.4626865671641784E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.482587064676617E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.1890547263681592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.482587064676617E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14220,7 +14232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E07661C-7398-44FF-B84A-22EA52D99A0B}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14255,7 +14267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3CD388-D703-4D3C-A1F7-89D03A429D44}">
   <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -14486,7 +14498,7 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>248</v>
+        <v>8</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
@@ -15148,7 +15160,7 @@
         <v>80</v>
       </c>
       <c r="D50" t="s">
-        <v>248</v>
+        <v>8</v>
       </c>
       <c r="E50"/>
       <c r="F50" t="s">
@@ -15920,7 +15932,7 @@
         <v>132</v>
       </c>
       <c r="D96" t="s">
-        <v>248</v>
+        <v>8</v>
       </c>
       <c r="E96"/>
       <c r="F96" t="s">
@@ -15936,7 +15948,7 @@
         <v>133</v>
       </c>
       <c r="D97" t="s">
-        <v>248</v>
+        <v>8</v>
       </c>
       <c r="E97"/>
       <c r="F97" t="s">
@@ -15952,7 +15964,7 @@
         <v>134</v>
       </c>
       <c r="D98" t="s">
-        <v>248</v>
+        <v>8</v>
       </c>
       <c r="E98"/>
       <c r="F98" t="s">
@@ -16054,7 +16066,7 @@
         <v>141</v>
       </c>
       <c r="D104" t="s">
-        <v>248</v>
+        <v>8</v>
       </c>
       <c r="E104"/>
       <c r="F104" t="s">
@@ -16172,7 +16184,7 @@
         <v>149</v>
       </c>
       <c r="D111" t="s">
-        <v>248</v>
+        <v>8</v>
       </c>
       <c r="E111"/>
       <c r="F111" t="s">
@@ -16287,7 +16299,7 @@
         <v>156</v>
       </c>
       <c r="D118" t="s">
-        <v>248</v>
+        <v>8</v>
       </c>
       <c r="E118"/>
       <c r="F118" t="s">
@@ -16303,7 +16315,7 @@
         <v>157</v>
       </c>
       <c r="D119" t="s">
-        <v>248</v>
+        <v>8</v>
       </c>
       <c r="E119"/>
       <c r="F119" t="s">
@@ -16370,7 +16382,7 @@
         <v>161</v>
       </c>
       <c r="D123" t="s">
-        <v>248</v>
+        <v>8</v>
       </c>
       <c r="E123"/>
       <c r="F123" t="s">
@@ -16526,7 +16538,7 @@
         <v>173</v>
       </c>
       <c r="D132" t="s">
-        <v>248</v>
+        <v>8</v>
       </c>
       <c r="E132"/>
       <c r="F132" t="s">
@@ -16545,7 +16557,7 @@
         <v>29</v>
       </c>
       <c r="D133" t="s">
-        <v>248</v>
+        <v>8</v>
       </c>
       <c r="E133"/>
       <c r="F133" t="s">
@@ -16564,7 +16576,7 @@
         <v>29</v>
       </c>
       <c r="D134" t="s">
-        <v>248</v>
+        <v>8</v>
       </c>
       <c r="E134"/>
       <c r="F134" t="s">
@@ -16580,7 +16592,7 @@
         <v>29</v>
       </c>
       <c r="D135" t="s">
-        <v>248</v>
+        <v>8</v>
       </c>
       <c r="E135"/>
       <c r="F135" t="s">
@@ -16615,7 +16627,7 @@
         <v>29</v>
       </c>
       <c r="D137" t="s">
-        <v>248</v>
+        <v>8</v>
       </c>
       <c r="E137"/>
       <c r="F137" t="s">
@@ -16631,7 +16643,7 @@
         <v>29</v>
       </c>
       <c r="D138" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E138"/>
       <c r="F138" t="s">
@@ -16650,7 +16662,7 @@
         <v>29</v>
       </c>
       <c r="D139" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E139"/>
       <c r="F139" t="s">
@@ -16666,7 +16678,7 @@
         <v>29</v>
       </c>
       <c r="D140" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E140"/>
       <c r="F140" t="s">
@@ -16685,7 +16697,7 @@
         <v>29</v>
       </c>
       <c r="D141" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E141"/>
       <c r="F141" t="s">
@@ -16701,7 +16713,7 @@
         <v>29</v>
       </c>
       <c r="D142" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E142"/>
       <c r="F142" t="s">
@@ -16720,7 +16732,7 @@
         <v>29</v>
       </c>
       <c r="D143" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E143"/>
       <c r="F143" t="s">
@@ -16739,7 +16751,7 @@
         <v>29</v>
       </c>
       <c r="D144" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E144"/>
       <c r="F144" t="s">
@@ -16758,7 +16770,7 @@
         <v>29</v>
       </c>
       <c r="D145" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E145"/>
       <c r="F145" t="s">
@@ -16777,7 +16789,7 @@
         <v>29</v>
       </c>
       <c r="D146" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E146"/>
       <c r="F146" t="s">
@@ -16796,7 +16808,7 @@
         <v>29</v>
       </c>
       <c r="D147" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E147"/>
       <c r="F147" t="s">
@@ -16812,7 +16824,7 @@
         <v>29</v>
       </c>
       <c r="D148" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E148"/>
       <c r="F148" t="s">
@@ -16831,7 +16843,7 @@
         <v>29</v>
       </c>
       <c r="D149" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E149"/>
       <c r="F149" t="s">
@@ -16850,7 +16862,7 @@
         <v>29</v>
       </c>
       <c r="D150" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E150"/>
       <c r="F150" t="s">
@@ -16869,7 +16881,7 @@
         <v>29</v>
       </c>
       <c r="D151" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E151"/>
       <c r="F151" t="s">
@@ -16885,7 +16897,7 @@
         <v>29</v>
       </c>
       <c r="D152" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E152"/>
       <c r="F152" t="s">
@@ -16904,7 +16916,7 @@
         <v>29</v>
       </c>
       <c r="D153" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E153"/>
       <c r="F153" t="s">
@@ -16920,7 +16932,7 @@
         <v>29</v>
       </c>
       <c r="D154" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E154"/>
       <c r="F154" t="s">
@@ -16939,7 +16951,7 @@
         <v>29</v>
       </c>
       <c r="D155" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E155"/>
       <c r="F155" t="s">
@@ -16958,7 +16970,7 @@
         <v>29</v>
       </c>
       <c r="D156" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E156"/>
       <c r="F156" t="s">
@@ -16977,7 +16989,7 @@
         <v>29</v>
       </c>
       <c r="D157" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E157"/>
       <c r="F157" t="s">
@@ -16996,7 +17008,7 @@
         <v>192</v>
       </c>
       <c r="D158" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E158"/>
       <c r="F158" t="s">
@@ -17012,7 +17024,7 @@
         <v>193</v>
       </c>
       <c r="D159" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E159"/>
       <c r="F159" t="s">
@@ -17031,7 +17043,7 @@
         <v>195</v>
       </c>
       <c r="D160" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E160"/>
       <c r="F160" t="s">
@@ -17047,7 +17059,7 @@
         <v>196</v>
       </c>
       <c r="D161" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E161"/>
       <c r="F161" t="s">
@@ -17066,7 +17078,7 @@
         <v>198</v>
       </c>
       <c r="D162" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E162"/>
       <c r="F162" t="s">
@@ -17082,7 +17094,7 @@
         <v>29</v>
       </c>
       <c r="D163" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E163"/>
       <c r="F163" t="s">
@@ -17098,7 +17110,7 @@
         <v>29</v>
       </c>
       <c r="D164" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E164"/>
       <c r="F164" t="s">
@@ -17117,7 +17129,7 @@
         <v>200</v>
       </c>
       <c r="D165" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E165"/>
       <c r="F165" t="s">
@@ -17133,7 +17145,7 @@
         <v>201</v>
       </c>
       <c r="D166" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E166"/>
       <c r="F166" t="s">
@@ -17152,7 +17164,7 @@
         <v>29</v>
       </c>
       <c r="D167" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E167"/>
       <c r="F167" t="s">
@@ -17168,7 +17180,7 @@
         <v>29</v>
       </c>
       <c r="D168" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E168"/>
       <c r="F168" t="s">
@@ -17238,7 +17250,7 @@
         <v>29</v>
       </c>
       <c r="D172" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E172"/>
       <c r="F172" t="s">
@@ -17257,7 +17269,7 @@
         <v>29</v>
       </c>
       <c r="D173" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E173"/>
       <c r="F173" t="s">
@@ -17276,7 +17288,7 @@
         <v>29</v>
       </c>
       <c r="D174" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E174"/>
       <c r="F174" t="s">
@@ -17292,7 +17304,7 @@
         <v>29</v>
       </c>
       <c r="D175" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E175"/>
       <c r="F175" t="s">
@@ -17311,7 +17323,7 @@
         <v>29</v>
       </c>
       <c r="D176" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E176"/>
       <c r="F176" t="s">
@@ -17330,7 +17342,7 @@
         <v>29</v>
       </c>
       <c r="D177" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E177"/>
       <c r="F177" t="s">
@@ -17349,7 +17361,7 @@
         <v>29</v>
       </c>
       <c r="D178" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="E178"/>
       <c r="F178" t="s">
@@ -17365,7 +17377,7 @@
         <v>29</v>
       </c>
       <c r="D179" t="s">
-        <v>248</v>
+        <v>6</v>
       </c>
       <c r="E179"/>
       <c r="F179" t="s">
@@ -17381,7 +17393,7 @@
         <v>29</v>
       </c>
       <c r="D180" t="s">
-        <v>248</v>
+        <v>6</v>
       </c>
       <c r="E180"/>
       <c r="F180" t="s">
@@ -17397,7 +17409,7 @@
         <v>29</v>
       </c>
       <c r="D181" t="s">
-        <v>248</v>
+        <v>6</v>
       </c>
       <c r="E181"/>
       <c r="F181" t="s">
@@ -17511,7 +17523,7 @@
         <v>219</v>
       </c>
       <c r="D187" t="s">
-        <v>248</v>
+        <v>6</v>
       </c>
       <c r="E187"/>
       <c r="F187" t="s">
@@ -17546,7 +17558,7 @@
         <v>222</v>
       </c>
       <c r="D189" t="s">
-        <v>248</v>
+        <v>6</v>
       </c>
       <c r="E189"/>
       <c r="F189" t="s">
@@ -17565,7 +17577,7 @@
         <v>224</v>
       </c>
       <c r="D190" t="s">
-        <v>248</v>
+        <v>6</v>
       </c>
       <c r="E190"/>
       <c r="F190" t="s">
@@ -17581,7 +17593,7 @@
         <v>225</v>
       </c>
       <c r="D191" t="s">
-        <v>248</v>
+        <v>6</v>
       </c>
       <c r="E191"/>
       <c r="F191" t="s">
@@ -17597,7 +17609,7 @@
         <v>226</v>
       </c>
       <c r="D192" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="E192"/>
       <c r="F192" t="s">
@@ -17616,7 +17628,7 @@
         <v>228</v>
       </c>
       <c r="D193" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="E193"/>
       <c r="F193" t="s">
@@ -17632,7 +17644,7 @@
         <v>229</v>
       </c>
       <c r="D194" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="E194"/>
       <c r="F194" t="s">
@@ -17651,7 +17663,7 @@
         <v>231</v>
       </c>
       <c r="D195" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="E195"/>
       <c r="F195" t="s">
@@ -17667,7 +17679,7 @@
         <v>232</v>
       </c>
       <c r="D196" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="E196"/>
       <c r="F196" t="s">
@@ -17683,7 +17695,7 @@
         <v>233</v>
       </c>
       <c r="D197" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="E197"/>
       <c r="F197" t="s">
@@ -17766,7 +17778,7 @@
         <v>239</v>
       </c>
       <c r="D202" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="E202"/>
       <c r="F202" t="s">
@@ -17812,7 +17824,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17983,9 +17995,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B4" s="10">
         <f>COUNTIF('Detail Info'!D:D, "Passed on Sauce Lab")</f>
@@ -17993,19 +18005,19 @@
       </c>
       <c r="C4" s="10">
         <f>COUNTIF('Detail Info'!D:D, "Passed After Re-Running")</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D4" s="10">
         <f>COUNTIF('Detail Info'!D:D, "Failed By Bug")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E4" s="10">
         <f>COUNTIF('Detail Info'!D:D, "Failed By Script")</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F4" s="10">
         <f>COUNTIF('Detail Info'!D:D, "Not Run on Sauce Lab")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G4" s="14">
         <f>COUNTA('Detail Info'!C:C)-2</f>
@@ -18017,23 +18029,23 @@
       </c>
       <c r="J4" s="13">
         <f>C4/G4</f>
-        <v>0</v>
+        <v>7.4626865671641784E-2</v>
       </c>
       <c r="K4" s="13">
         <f>D4/G4</f>
-        <v>0</v>
+        <v>3.482587064676617E-2</v>
       </c>
       <c r="L4" s="13">
         <f>E4/G4</f>
-        <v>0</v>
+        <v>0.1890547263681592</v>
       </c>
       <c r="M4" s="13">
         <f>F4/G4</f>
-        <v>0</v>
+        <v>3.482587064676617E-2</v>
       </c>
       <c r="N4" s="13">
         <f>SUM(I4:M4)</f>
-        <v>0.66666666666666663</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -18203,7 +18215,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R73" sqref="R73"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/Data/AutomationReport.xlsx
+++ b/src/Data/AutomationReport.xlsx
@@ -1,27 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3185B334-F744-4FF9-8A59-121990DFBC9B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="10_ncr:100000_{24EC4BBD-FF4F-455C-ACAA-3D79C13B5291}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView tabRatio="725" windowHeight="12645" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard" sheetId="13" r:id="rId1"/>
-    <sheet name="Detail Info" sheetId="12" r:id="rId2"/>
-    <sheet name="Data Table" sheetId="8" r:id="rId3"/>
-    <sheet name="Summary" sheetId="6" r:id="rId4"/>
-    <sheet name="Passed After ReRunning" sheetId="9" r:id="rId5"/>
-    <sheet name="Failed After ReRunning" sheetId="10" r:id="rId6"/>
-    <sheet name="Detail Chart" sheetId="11" r:id="rId7"/>
+    <sheet name="Dashboard" r:id="rId1" sheetId="13"/>
+    <sheet name="Detail Info" r:id="rId2" sheetId="12"/>
+    <sheet name="Data Table" r:id="rId3" sheetId="8"/>
+    <sheet name="Summary" r:id="rId4" sheetId="6"/>
+    <sheet name="Passed After ReRunning" r:id="rId5" sheetId="9"/>
+    <sheet name="Failed After ReRunning" r:id="rId6" sheetId="10"/>
+    <sheet name="Detail Chart" r:id="rId7" sheetId="11"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Detail Info'!$D$1:$D$203</definedName>
-  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="247">
   <si>
     <t>Total</t>
   </si>
@@ -76,706 +73,700 @@
     <t>TDP Winter 2019 Sprint 2</t>
   </si>
   <si>
-    <t>07 Nov 2018</t>
-  </si>
-  <si>
     <t>[TDP Winter 2019 Sprint 2] 07 Nov 2018</t>
   </si>
   <si>
-    <t>SupplyDemandDemandCompensationLocationDetails</t>
-  </si>
-  <si>
-    <t>ViewDemandDetails</t>
-  </si>
-  <si>
-    <t>DemandDetailsLocationViewMoreandViewLess</t>
-  </si>
-  <si>
-    <t>DemandDetailsCompanyNameViewMoreandViewLess</t>
-  </si>
-  <si>
-    <t>ViewCompensationDetails</t>
-  </si>
-  <si>
-    <t>ViewFavorableLocationsDetails</t>
-  </si>
-  <si>
-    <t>SupplyDemandDownloadPDFsExcelPNGfiles</t>
-  </si>
-  <si>
-    <t>DownloadSummaryReport</t>
-  </si>
-  <si>
-    <t>DownloadFullReport</t>
-  </si>
-  <si>
-    <t>DownloadExcelReport</t>
-  </si>
-  <si>
-    <t>Downloadpng</t>
-  </si>
-  <si>
-    <t>Addafilterstogetmoreresults</t>
+    <t>15 Nov 2018</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Supply &amp; Demand: Demand, Compensation, Location Details</t>
+  </si>
+  <si>
+    <t>View Demand Details</t>
+  </si>
+  <si>
+    <t>Demand Details Location View More and View Less</t>
+  </si>
+  <si>
+    <t>Demand Details Company Name View More and View Less</t>
+  </si>
+  <si>
+    <t>View Compensation Details</t>
+  </si>
+  <si>
+    <t>View Favorable Locations Details</t>
+  </si>
+  <si>
+    <t>Supply &amp; Demand: Download PDFs, Excel, PNG files</t>
+  </si>
+  <si>
+    <t>Download Summary Report</t>
+  </si>
+  <si>
+    <t>Download Full Report</t>
+  </si>
+  <si>
+    <t>Download Excel Report</t>
+  </si>
+  <si>
+    <t>Download png</t>
+  </si>
+  <si>
+    <t>Add a filters to get more results</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>ManageLogos</t>
-  </si>
-  <si>
-    <t>SupplyDemandSaveSearchSupplydetailsCompensation</t>
-  </si>
-  <si>
-    <t>SaveSearch</t>
-  </si>
-  <si>
-    <t>ConvertcompensationfromSalarytoHourlyorviceversa</t>
-  </si>
-  <si>
-    <t>SupplyDetailsLocationViewMoreandViewLess</t>
-  </si>
-  <si>
-    <t>SupplyDetailsCompanyNameViewMoreandViewLess</t>
-  </si>
-  <si>
-    <t>SupplyDetailsViewResultsOverview</t>
-  </si>
-  <si>
-    <t>SearchHistory</t>
-  </si>
-  <si>
-    <t>SupplyDemandRadius</t>
-  </si>
-  <si>
-    <t>ExpandRadius</t>
-  </si>
-  <si>
-    <t>DecreaseRadius</t>
-  </si>
-  <si>
-    <t>SupplyDemandlocationandkeywordsearch</t>
-  </si>
-  <si>
-    <t>LocationSearch</t>
-  </si>
-  <si>
-    <t>KeywordSearch</t>
-  </si>
-  <si>
-    <t>ViewTrendDetails</t>
-  </si>
-  <si>
-    <t>Campaignconstruction</t>
-  </si>
-  <si>
-    <t>Createacampaignwithsavedsearchrecipients</t>
-  </si>
-  <si>
-    <t>Createacampaignwithlistrecipients</t>
-  </si>
-  <si>
-    <t>Campaigncreatewithaninvalidreplytoemailfromasavedsearcheditinincompletestate</t>
-  </si>
-  <si>
-    <t>Createacampaignwithaninvalidreplytoemail</t>
-  </si>
-  <si>
-    <t>Initiatecreatingcampaignfromasavedsearchlisting</t>
-  </si>
-  <si>
-    <t>Editingacampaignintheincompletestate</t>
-  </si>
-  <si>
-    <t>Editingacampaigninthereadystate</t>
-  </si>
-  <si>
-    <t>Campaigncreating</t>
-  </si>
-  <si>
-    <t>Createacampaignwithaduplicatetag</t>
-  </si>
-  <si>
-    <t>Campaignediting</t>
-  </si>
-  <si>
-    <t>Editingacampaigninthescheduledstate</t>
-  </si>
-  <si>
-    <t>Campaignlist</t>
-  </si>
-  <si>
-    <t>Accessingthecampaignservicefromnavigation</t>
-  </si>
-  <si>
-    <t>Campaigntemplate</t>
-  </si>
-  <si>
-    <t>Creatinganewtemplate</t>
-  </si>
-  <si>
-    <t>Loadingandpreviewingasavedtemplate</t>
-  </si>
-  <si>
-    <t>Deletingasavedtemplate</t>
-  </si>
-  <si>
-    <t>Campaignviewingdeleting</t>
-  </si>
-  <si>
-    <t>Viewingacampaign</t>
-  </si>
-  <si>
-    <t>Deletingacampaign</t>
-  </si>
-  <si>
-    <t>Creatingcustomlistsfromlistmanagementpage</t>
-  </si>
-  <si>
-    <t>Creatingaprivatecustomlistfromlistmanagementpage</t>
-  </si>
-  <si>
-    <t>Creatingapubliccustomlistfromlistmanagementpage</t>
-  </si>
-  <si>
-    <t>Editingcustomlistsfromlistmanagementpage</t>
-  </si>
-  <si>
-    <t>Editlistnamefromcandidatelistpage</t>
-  </si>
-  <si>
-    <t>Removingcustomlistsfromlistmanagementpage</t>
-  </si>
-  <si>
-    <t>Removeacandidatefromcandidatelistpage</t>
-  </si>
-  <si>
-    <t>Removingmultiplelists</t>
-  </si>
-  <si>
-    <t>Actionsagainstcandidatesinalistnote</t>
-  </si>
-  <si>
-    <t>Downloadacandidate</t>
-  </si>
-  <si>
-    <t>Actionsagainstcandidatesinalistsecondpart</t>
-  </si>
-  <si>
-    <t>Forwardacandidate</t>
-  </si>
-  <si>
-    <t>Forwardacandidatenegativescenario</t>
-  </si>
-  <si>
-    <t>Moveacandidatefromonelisttoanother</t>
-  </si>
-  <si>
-    <t>Closemodalwithlistsbyclickingoutside</t>
-  </si>
-  <si>
-    <t>Addanote</t>
-  </si>
-  <si>
-    <t>OpenCandidateDetailspage</t>
-  </si>
-  <si>
-    <t>ViewNotesActions</t>
-  </si>
-  <si>
-    <t>Actionsagainstcandidatesinalist</t>
-  </si>
-  <si>
-    <t>Bulkactionsagainstcandidatesinalist</t>
-  </si>
-  <si>
-    <t>RecentSearches</t>
-  </si>
-  <si>
-    <t>Deletearecentsearchwithapprove</t>
-  </si>
-  <si>
-    <t>Deletearecentsearchwithclickonx</t>
-  </si>
-  <si>
-    <t>Deletearecentsearchwithclickoncancel</t>
-  </si>
-  <si>
-    <t>SavedandRecentSearches</t>
-  </si>
-  <si>
-    <t>EditasavesearchautomatedemailwithclickUpdate</t>
-  </si>
-  <si>
-    <t>Editasavesearchautomatedemailwithclickx</t>
-  </si>
-  <si>
-    <t>Pagethroughmultiplepages</t>
-  </si>
-  <si>
-    <t>Paginationonresultspage</t>
-  </si>
-  <si>
-    <t>Executeasearchfromarecentsearch</t>
-  </si>
-  <si>
-    <t>Executeasearchfromasavedsearch</t>
-  </si>
-  <si>
-    <t>SavedSearches</t>
-  </si>
-  <si>
-    <t>Deleteasavedsearchwithapprove</t>
-  </si>
-  <si>
-    <t>Deleteasavedsearchwithclickonx</t>
-  </si>
-  <si>
-    <t>Deleteasavedsearchwithclickoncancel</t>
-  </si>
-  <si>
-    <t>SearchDetailsActions</t>
-  </si>
-  <si>
-    <t>Addtolist</t>
-  </si>
-  <si>
-    <t>Addtonewlycreatedlist</t>
-  </si>
-  <si>
-    <t>Forwardcandidate</t>
-  </si>
-  <si>
-    <t>Favoritecandidate</t>
-  </si>
-  <si>
-    <t>SearchDetails</t>
-  </si>
-  <si>
-    <t>Returntoresultspage</t>
-  </si>
-  <si>
-    <t>Emailcandidate</t>
-  </si>
-  <si>
-    <t>ExporttoATS</t>
-  </si>
-  <si>
-    <t>ExporttoATSwithRequisitionID</t>
-  </si>
-  <si>
-    <t>ToggleResumeandProfile</t>
-  </si>
-  <si>
-    <t>Seemoreskills</t>
-  </si>
-  <si>
-    <t>Flipthroughresumes</t>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Manage Logos</t>
+  </si>
+  <si>
+    <t>Supply &amp; Demand - Save Search, Supply details, Compensation</t>
+  </si>
+  <si>
+    <t>Save Search</t>
+  </si>
+  <si>
+    <t>Convert compensation from “Salary” to “Hourly” or vice versa</t>
+  </si>
+  <si>
+    <t>Supply Details Location View More and View Less</t>
+  </si>
+  <si>
+    <t>Supply Details Company Name View More and View Less</t>
+  </si>
+  <si>
+    <t>Supply Details View Results Overview</t>
+  </si>
+  <si>
+    <t>Search History</t>
+  </si>
+  <si>
+    <t>Supply &amp; Demand Radius</t>
+  </si>
+  <si>
+    <t>Expand Radius</t>
+  </si>
+  <si>
+    <t>Decrease Radius</t>
+  </si>
+  <si>
+    <t>Supply &amp; Demand location and keyword search</t>
+  </si>
+  <si>
+    <t>Location Search</t>
+  </si>
+  <si>
+    <t>Keyword Search</t>
+  </si>
+  <si>
+    <t>View Trend Details</t>
+  </si>
+  <si>
+    <t>Campaign construction</t>
+  </si>
+  <si>
+    <t>Create a campaign with saved search recipients</t>
+  </si>
+  <si>
+    <t>Create a campaign with list recipients</t>
+  </si>
+  <si>
+    <t>Campaign create with an invalid reply-to email, from a saved search, edit in incomplete state</t>
+  </si>
+  <si>
+    <t>Create a campaign with an invalid reply-to email</t>
+  </si>
+  <si>
+    <t>Initiate creating campaign from a saved search listing</t>
+  </si>
+  <si>
+    <t>Editing a campaign in the incomplete state</t>
+  </si>
+  <si>
+    <t>Editing a campaign in the ready state</t>
+  </si>
+  <si>
+    <t>Campaign creating</t>
+  </si>
+  <si>
+    <t>Create a campaign with a duplicate tag</t>
+  </si>
+  <si>
+    <t>Campaign editing</t>
+  </si>
+  <si>
+    <t>Editing a campaign in the scheduled state</t>
+  </si>
+  <si>
+    <t>Campaign list</t>
+  </si>
+  <si>
+    <t>Accessing the campaign service from navigation</t>
+  </si>
+  <si>
+    <t>Campaign template</t>
+  </si>
+  <si>
+    <t>Creating a new template</t>
+  </si>
+  <si>
+    <t>Loading and previewing a saved template</t>
+  </si>
+  <si>
+    <t>Deleting a saved template</t>
+  </si>
+  <si>
+    <t>Campaign viewing, deleting</t>
+  </si>
+  <si>
+    <t>Viewing a campaign</t>
+  </si>
+  <si>
+    <t>Deleting a campaign</t>
+  </si>
+  <si>
+    <t>Creating custom lists from list management page</t>
+  </si>
+  <si>
+    <t>Creating a private custom list from list management page</t>
+  </si>
+  <si>
+    <t>Creating a public custom list from list management page</t>
+  </si>
+  <si>
+    <t>Editing custom lists from list management page</t>
+  </si>
+  <si>
+    <t>Edit list name from candidate list page</t>
+  </si>
+  <si>
+    <t>Removing custom lists from list management page</t>
+  </si>
+  <si>
+    <t>Remove a candidate from candidate list page</t>
+  </si>
+  <si>
+    <t>Removing multiple lists</t>
+  </si>
+  <si>
+    <t>Actions against candidates in a list note</t>
+  </si>
+  <si>
+    <t>Download a candidate</t>
+  </si>
+  <si>
+    <t>Actions against candidates in a list second part</t>
+  </si>
+  <si>
+    <t>Forward a candidate</t>
+  </si>
+  <si>
+    <t>Forward a candidate negative scenario</t>
+  </si>
+  <si>
+    <t>Move a candidate from one list to another</t>
+  </si>
+  <si>
+    <t>Close modal with lists by clicking outside</t>
+  </si>
+  <si>
+    <t>Add a note</t>
+  </si>
+  <si>
+    <t>Open Candidate Details page</t>
+  </si>
+  <si>
+    <t>View Notes/Actions</t>
+  </si>
+  <si>
+    <t>Actions against candidates in a list</t>
+  </si>
+  <si>
+    <t>Bulk actions against candidates in a list</t>
+  </si>
+  <si>
+    <t>Recent Searches</t>
+  </si>
+  <si>
+    <t>Delete a recent search with approve</t>
+  </si>
+  <si>
+    <t>Delete a recent search with click on \"x\"</t>
+  </si>
+  <si>
+    <t>Delete a recent search with click on \"cancel\"</t>
+  </si>
+  <si>
+    <t>Saved and Recent Searches</t>
+  </si>
+  <si>
+    <t>Edit a save search automated email with click “Update”</t>
+  </si>
+  <si>
+    <t>Edit a save search automated email with click \"x\"</t>
+  </si>
+  <si>
+    <t>Page through multiple pages</t>
+  </si>
+  <si>
+    <t>Pagination on results page</t>
+  </si>
+  <si>
+    <t>Execute a search from a recent search</t>
+  </si>
+  <si>
+    <t>Execute a search from a saved search</t>
+  </si>
+  <si>
+    <t>Saved Searches</t>
+  </si>
+  <si>
+    <t>Delete a saved search with approve</t>
+  </si>
+  <si>
+    <t>Delete a saved search with click on \"x\"</t>
+  </si>
+  <si>
+    <t>Delete a saved search with click on \"cancel\"</t>
+  </si>
+  <si>
+    <t>Search Details Actions</t>
+  </si>
+  <si>
+    <t>Add to list</t>
+  </si>
+  <si>
+    <t>Add to newly created list</t>
+  </si>
+  <si>
+    <t>Forward candidate</t>
+  </si>
+  <si>
+    <t>Favorite candidate</t>
+  </si>
+  <si>
+    <t>Search Details</t>
+  </si>
+  <si>
+    <t>Return to results page</t>
+  </si>
+  <si>
+    <t>Email candidate</t>
+  </si>
+  <si>
+    <t>Export to ATS</t>
+  </si>
+  <si>
+    <t>Export to ATS with Requisition ID</t>
+  </si>
+  <si>
+    <t>Toggle Resume and Profile</t>
+  </si>
+  <si>
+    <t>See more skills</t>
+  </si>
+  <si>
+    <t>Flip through resumes</t>
   </si>
   <si>
     <t>SearchHomePage</t>
   </si>
   <si>
-    <t>Executeasearchwithlocationonly</t>
-  </si>
-  <si>
-    <t>Runasearchfromarecentsearch</t>
-  </si>
-  <si>
-    <t>Runasearchfromasavedsearch</t>
-  </si>
-  <si>
-    <t>Viewallrecentsearches</t>
-  </si>
-  <si>
-    <t>Viewallsavedsearches</t>
-  </si>
-  <si>
-    <t>Viewalllists</t>
-  </si>
-  <si>
-    <t>Viewaspecificlist</t>
-  </si>
-  <si>
-    <t>Clearthekeywordsfieldinput</t>
-  </si>
-  <si>
-    <t>Clearthelocationfieldinput</t>
-  </si>
-  <si>
-    <t>Changeradius</t>
-  </si>
-  <si>
-    <t>Enterkeywordsandlocationautocomplete</t>
-  </si>
-  <si>
-    <t>Executeacriterialesssearch</t>
-  </si>
-  <si>
-    <t>Executeasearchwithkeywordsonly</t>
+    <t>Execute a search with location only</t>
+  </si>
+  <si>
+    <t>Run a search from a recent search</t>
+  </si>
+  <si>
+    <t>Run a search from a saved search</t>
+  </si>
+  <si>
+    <t>View all recent searches</t>
+  </si>
+  <si>
+    <t>View all saved searches</t>
+  </si>
+  <si>
+    <t>View all lists</t>
+  </si>
+  <si>
+    <t>View a specific list</t>
+  </si>
+  <si>
+    <t>Clear the keywords field input</t>
+  </si>
+  <si>
+    <t>Clear the location field input</t>
+  </si>
+  <si>
+    <t>Change radius</t>
+  </si>
+  <si>
+    <t>Enter keywords and location autocomplete</t>
+  </si>
+  <si>
+    <t>Execute a criteria-less search</t>
+  </si>
+  <si>
+    <t>Execute a search with keywords only</t>
   </si>
   <si>
     <t>SearchResults</t>
   </si>
   <si>
-    <t>Forwardcandidatenegativescenario</t>
-  </si>
-  <si>
-    <t>Addtolistwithaddnewlist</t>
-  </si>
-  <si>
-    <t>Addtolistnegativescenario</t>
-  </si>
-  <si>
-    <t>SearchforaListCustomIntakeMatchJobMatch</t>
-  </si>
-  <si>
-    <t>Searchandaddcandidatetolist</t>
-  </si>
-  <si>
-    <t>Unabletoaddaduplicatecandidateerror</t>
-  </si>
-  <si>
-    <t>SearchResultssecond</t>
-  </si>
-  <si>
-    <t>BulkAddtoListnegativescenario</t>
-  </si>
-  <si>
-    <t>BulkEmail</t>
-  </si>
-  <si>
-    <t>SearchresultsbulkactionsSendAMessage</t>
-  </si>
-  <si>
-    <t>Sendamessagetocandidates</t>
-  </si>
-  <si>
-    <t>Hidemessageguidanceoverlay</t>
-  </si>
-  <si>
-    <t>Sendmessagemodalclosereset</t>
-  </si>
-  <si>
-    <t>Incompletemessagesendprotection</t>
-  </si>
-  <si>
-    <t>Blankmessagesendprotection</t>
-  </si>
-  <si>
-    <t>Noselectedrecipientsmessagesendprotection</t>
-  </si>
-  <si>
-    <t>SearchResultsthird</t>
-  </si>
-  <si>
-    <t>Searchandaddmultiplecandidatestolist</t>
-  </si>
-  <si>
-    <t>Bulkforward</t>
-  </si>
-  <si>
-    <t>Bulkforwardnegativescenario</t>
-  </si>
-  <si>
-    <t>BulkAddtoList</t>
-  </si>
-  <si>
-    <t>Saveasearchandscheduleanautomatedemail</t>
-  </si>
-  <si>
-    <t>Saveasearchandscheduleanautomatedemailclickoutside</t>
-  </si>
-  <si>
-    <t>Saveasearchandscheduleanautomatedemailclickonthex</t>
-  </si>
-  <si>
-    <t>SaveasearchandscheduleanautomatedemailclickontheCancel</t>
-  </si>
-  <si>
-    <t>Scheduleanautomatedemail</t>
-  </si>
-  <si>
-    <t>Scheduleanautomatedemailclickoutside</t>
-  </si>
-  <si>
-    <t>Scheduleanautomatedemailclickx</t>
-  </si>
-  <si>
-    <t>ScheduleanautomatedemailclickCancel</t>
-  </si>
-  <si>
-    <t>Applyafilter</t>
-  </si>
-  <si>
-    <t>OpenClosefilters</t>
-  </si>
-  <si>
-    <t>Clearfilters</t>
-  </si>
-  <si>
-    <t>Collapsefilters</t>
-  </si>
-  <si>
-    <t>SearchResultsGuidance</t>
-  </si>
-  <si>
-    <t>ShowsemanticguidanceclickOkGotit</t>
-  </si>
-  <si>
-    <t>Showsemanticguidanceclickonthexicon</t>
-  </si>
-  <si>
-    <t>Customlistsfromlistmanagementpage</t>
-  </si>
-  <si>
-    <t>Candidatecount</t>
-  </si>
-  <si>
-    <t>Executeanewsearchwithonlykeyword</t>
-  </si>
-  <si>
-    <t>Executeanewsearchwithonlylocation</t>
-  </si>
-  <si>
-    <t>Removeasuggestedsemanticterm</t>
-  </si>
-  <si>
-    <t>Addacustomtermtosemanticquery</t>
-  </si>
-  <si>
-    <t>ToggleIncludeRelatedKeywords</t>
-  </si>
-  <si>
-    <t>AddHiringManagerthroughicon</t>
-  </si>
-  <si>
-    <t>AddHiringManager</t>
-  </si>
-  <si>
-    <t>AddDeleteMustHaveSkillsandNiceToHaveSkills</t>
-  </si>
-  <si>
-    <t>AddMoreQuestionsaddeditanddelete</t>
-  </si>
-  <si>
-    <t>ChangetitleofIntakeChangeJobTitleforIntake</t>
-  </si>
-  <si>
-    <t>ClickablePercentageofCanceledStatsboxClickableFilledStatsbox</t>
-  </si>
-  <si>
-    <t>EnterSalaryRangeChangeSalaryfromSalarytoHourly</t>
-  </si>
-  <si>
-    <t>Completeintakeandsendemailpostajob</t>
-  </si>
-  <si>
-    <t>Completeintakeandsendemail</t>
-  </si>
-  <si>
-    <t>CancelanIntake</t>
-  </si>
-  <si>
-    <t>AsauserIwanttomarkanIntakeasFilledifIhavehiredfortherole</t>
-  </si>
-  <si>
-    <t>EditanIntakeDuplicateanIntake</t>
-  </si>
-  <si>
-    <t>EditEmail</t>
-  </si>
-  <si>
-    <t>ExpandnumberofIntakesonthepage</t>
-  </si>
-  <si>
-    <t>ViewactiveIntakesViewpendingIntakesViewallIntakes</t>
-  </si>
-  <si>
-    <t>ThumbupordowncandidatesSelectresumestoattachinemail</t>
-  </si>
-  <si>
-    <t>ManualInputJobPostingLink</t>
-  </si>
-  <si>
-    <t>MarkIntakeasfilled</t>
-  </si>
-  <si>
-    <t>MyStatsCalendar</t>
-  </si>
-  <si>
-    <t>NavigationIntakeusingHomeiconandthroughProgresssidebar</t>
-  </si>
-  <si>
-    <t>NavigatetohomepagefromIntakestepsusingHomeicon</t>
-  </si>
-  <si>
-    <t>NavigateRequirementspagethroughProgresssidebar</t>
-  </si>
-  <si>
-    <t>NavigationacrossIntakeusingstepsbuttonsandusingNextButton</t>
-  </si>
-  <si>
-    <t>NavigateacrossIntakestepsusingstepsbuttons</t>
-  </si>
-  <si>
-    <t>NavigateacrossIntakestepsusingNextButton</t>
-  </si>
-  <si>
-    <t>StartanewIntakeManualInputoptionfromHomepage</t>
-  </si>
-  <si>
-    <t>StartanewIntake</t>
-  </si>
-  <si>
-    <t>AddnotesandDeletenotes</t>
-  </si>
-  <si>
-    <t>Addnotes</t>
-  </si>
-  <si>
-    <t>Deletenotes</t>
-  </si>
-  <si>
-    <t>ClicktopreviewemailtohiringmanagerRemoveapprovalbuttonsfromemail</t>
-  </si>
-  <si>
-    <t>ApproveModifyDeclineIntake</t>
-  </si>
-  <si>
-    <t>ApproveIntake</t>
-  </si>
-  <si>
-    <t>ModifyIntake</t>
-  </si>
-  <si>
-    <t>DeclineIntake</t>
-  </si>
-  <si>
-    <t>Saveandremovehiringmanager</t>
-  </si>
-  <si>
-    <t>SearchbyProjectorHiringManager</t>
-  </si>
-  <si>
-    <t>SelectAllinYearsofExperienceSelectAllinRecommendedJobTitle</t>
-  </si>
-  <si>
-    <t>ViewDraftIntakes</t>
-  </si>
-  <si>
-    <t>ViewlatestversionofIntake</t>
-  </si>
-  <si>
-    <t>EnterCitySelectDeselectSuggestedCitiesSetradiusforsourcingcandidatesinarea</t>
-  </si>
-  <si>
-    <t>ActivateanewJob</t>
-  </si>
-  <si>
-    <t>ActivateanewJobfortheactualday</t>
-  </si>
-  <si>
-    <t>CopyanexistingJob</t>
-  </si>
-  <si>
-    <t>CreateanewJob</t>
-  </si>
-  <si>
-    <t>EditanexistingJob</t>
-  </si>
-  <si>
-    <t>ProductSelectionPage</t>
-  </si>
-  <si>
-    <t>SaveandEditDraft</t>
-  </si>
-  <si>
-    <t>ListsModule</t>
-  </si>
-  <si>
-    <t>ViewallLists</t>
+    <t>Forward candidate negative scenario</t>
+  </si>
+  <si>
+    <t>Add to list with add new list</t>
+  </si>
+  <si>
+    <t>Add to list negative scenario</t>
+  </si>
+  <si>
+    <t>Search for a List (Custom, Intake Match, Job Match)</t>
+  </si>
+  <si>
+    <t>Search and add candidate to list</t>
+  </si>
+  <si>
+    <t>Unable to add a duplicate candidate (error)</t>
+  </si>
+  <si>
+    <t>SearchResults second</t>
+  </si>
+  <si>
+    <t>Bulk Add to List negative scenario</t>
+  </si>
+  <si>
+    <t>Bulk Email</t>
+  </si>
+  <si>
+    <t>Search results bulk actions (Send A Message)</t>
+  </si>
+  <si>
+    <t>Send a message to candidates</t>
+  </si>
+  <si>
+    <t>Hide message guidance overlay</t>
+  </si>
+  <si>
+    <t>Send message modal close reset</t>
+  </si>
+  <si>
+    <t>Incomplete message send protection</t>
+  </si>
+  <si>
+    <t>Blank message send protection</t>
+  </si>
+  <si>
+    <t>No selected recipients message send protection</t>
+  </si>
+  <si>
+    <t>SearchResults third</t>
+  </si>
+  <si>
+    <t>Search and add multiple candidates to list</t>
+  </si>
+  <si>
+    <t>Bulk forward</t>
+  </si>
+  <si>
+    <t>Bulk forward negative scenario</t>
+  </si>
+  <si>
+    <t>Bulk Add to List</t>
+  </si>
+  <si>
+    <t>Save a search and schedule an automated email</t>
+  </si>
+  <si>
+    <t>Save a search and schedule an automated email click outside</t>
+  </si>
+  <si>
+    <t>Save a search and schedule an automated email click on the \"x\"</t>
+  </si>
+  <si>
+    <t>Save a search and schedule an automated email click on the \"Cancel\"</t>
+  </si>
+  <si>
+    <t>Schedule an automated email</t>
+  </si>
+  <si>
+    <t>Schedule an automated email click outside</t>
+  </si>
+  <si>
+    <t>Schedule an automated email click \"x\"</t>
+  </si>
+  <si>
+    <t>Schedule an automated email click \"Cancel\"</t>
+  </si>
+  <si>
+    <t>Apply a filter</t>
+  </si>
+  <si>
+    <t>Open/Close filters</t>
+  </si>
+  <si>
+    <t>Clear filters</t>
+  </si>
+  <si>
+    <t>Collapse filters</t>
+  </si>
+  <si>
+    <t>Search Results Guidance</t>
+  </si>
+  <si>
+    <t>Show semantic guidance click “Ok, Got it”</t>
+  </si>
+  <si>
+    <t>Show semantic guidance click on the “x” icon</t>
+  </si>
+  <si>
+    <t>Custom lists from list management page</t>
+  </si>
+  <si>
+    <t>Candidate count</t>
+  </si>
+  <si>
+    <t>Search Results</t>
+  </si>
+  <si>
+    <t>Execute a new search with only keyword</t>
+  </si>
+  <si>
+    <t>Execute a new search with only location</t>
+  </si>
+  <si>
+    <t>Remove a suggested semantic term</t>
+  </si>
+  <si>
+    <t>Add a custom term to semantic query</t>
+  </si>
+  <si>
+    <t>Toggle “Include Related Keywords”</t>
+  </si>
+  <si>
+    <t>Add Hiring Manager through “+” icon</t>
+  </si>
+  <si>
+    <t>Add Hiring Manager</t>
+  </si>
+  <si>
+    <t>Add/Delete Must-Have Skills and Nice-To-Have Skills</t>
+  </si>
+  <si>
+    <t>Add More Questions: add, edit and delete</t>
+  </si>
+  <si>
+    <t>Change title of Intake, Change Job Title for Intake</t>
+  </si>
+  <si>
+    <t>Clickable Percentage of Canceled Stats box, Clickable “Filled” Stats box</t>
+  </si>
+  <si>
+    <t>Enter Salary Range, Change Salary from Salary to Hourly</t>
+  </si>
+  <si>
+    <t>Complete intake and send email post a job</t>
+  </si>
+  <si>
+    <t>Complete intake and send email</t>
+  </si>
+  <si>
+    <t>Cancel an Intake</t>
+  </si>
+  <si>
+    <t>As a user, I want to mark an Intake as Filled if I have hired for the role</t>
+  </si>
+  <si>
+    <t>Edit an Intake, Duplicate an Intake</t>
+  </si>
+  <si>
+    <t>Edit Email</t>
+  </si>
+  <si>
+    <t>Expand number of Intakes on the page</t>
+  </si>
+  <si>
+    <t>View active Intakes, View pending Intakes, View all Intakes</t>
+  </si>
+  <si>
+    <t>Thumb up or down candidates, Select resumes to attach in email</t>
+  </si>
+  <si>
+    <t>Manual Input Job Posting Link</t>
+  </si>
+  <si>
+    <t>Mark Intake as filled</t>
+  </si>
+  <si>
+    <t>My Stats Calendar</t>
+  </si>
+  <si>
+    <t>Navigation Intake using Home icon and through “Progress” side bar</t>
+  </si>
+  <si>
+    <t>Navigate to home page from Intake steps using Home icon</t>
+  </si>
+  <si>
+    <t>Navigate “Requirements” page through “Progress” side bar</t>
+  </si>
+  <si>
+    <t>Navigation across Intake using steps buttons and using “Next” Button</t>
+  </si>
+  <si>
+    <t>Navigate across Intake steps using steps buttons</t>
+  </si>
+  <si>
+    <t>Navigate across Intake steps using “Next” Button</t>
+  </si>
+  <si>
+    <t>Start a new Intake, Manual Input option from Home page</t>
+  </si>
+  <si>
+    <t>Start a new Intake</t>
+  </si>
+  <si>
+    <t>Add notes and Delete notes</t>
+  </si>
+  <si>
+    <t>Add notes</t>
+  </si>
+  <si>
+    <t>Delete notes</t>
+  </si>
+  <si>
+    <t>Click to preview email to hiring manager, Remove approval buttons from email</t>
+  </si>
+  <si>
+    <t>Approve, Modify, Decline Intake</t>
+  </si>
+  <si>
+    <t>Approve Intake</t>
+  </si>
+  <si>
+    <t>Modify Intake</t>
+  </si>
+  <si>
+    <t>Decline Intake</t>
+  </si>
+  <si>
+    <t>Save and remove hiring manager</t>
+  </si>
+  <si>
+    <t>Search by Project or Hiring Manager</t>
+  </si>
+  <si>
+    <t>Select All in Years of Experience, Select All in Recommended Job Title</t>
+  </si>
+  <si>
+    <t>View Draft Intakes</t>
+  </si>
+  <si>
+    <t>View latest version of Intake</t>
+  </si>
+  <si>
+    <t>Enter City, Select/Deselect Suggested Cities, Set radius for sourcing candidates in area</t>
+  </si>
+  <si>
+    <t>Activate a new Job</t>
+  </si>
+  <si>
+    <t>Activate a new Job for the actual day</t>
+  </si>
+  <si>
+    <t>Copy an existing Job</t>
+  </si>
+  <si>
+    <t>Create a new Job</t>
+  </si>
+  <si>
+    <t>Edit an existing Job</t>
+  </si>
+  <si>
+    <t>Product Selection Page</t>
+  </si>
+  <si>
+    <t>Lists Module</t>
+  </si>
+  <si>
+    <t>View all Lists</t>
   </si>
   <si>
     <t>Lists</t>
   </si>
   <si>
-    <t>PostaJobWidget</t>
-  </si>
-  <si>
-    <t>PostaJob</t>
-  </si>
-  <si>
-    <t>ReviewRecentJobs</t>
-  </si>
-  <si>
-    <t>ViewAllJobs</t>
-  </si>
-  <si>
-    <t>QuickViews</t>
-  </si>
-  <si>
-    <t>CampaignSnapshot</t>
-  </si>
-  <si>
-    <t>IntakeSnapshot</t>
-  </si>
-  <si>
-    <t>SavedandRecentSearchModules</t>
-  </si>
-  <si>
-    <t>RecentSearchesforInsights</t>
-  </si>
-  <si>
-    <t>SavedSearchesforInsights</t>
-  </si>
-  <si>
-    <t>RecentSearchesforCandidates</t>
-  </si>
-  <si>
-    <t>ViewAllRecentSearches</t>
-  </si>
-  <si>
-    <t>SavedSearchesforCandidates</t>
-  </si>
-  <si>
-    <t>ViewAllSavedSearches</t>
-  </si>
-  <si>
-    <t>CampaignsforCandidates</t>
-  </si>
-  <si>
-    <t>SDModule</t>
-  </si>
-  <si>
-    <t>SDInsightssearch</t>
-  </si>
-  <si>
-    <t>SelfReportmodule</t>
-  </si>
-  <si>
-    <t>Loadingreportlistformanagerusers</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>09 Nov 2018</t>
-  </si>
-  <si>
-    <t>[TDP Winter 2019 Sprint 2] 09 Nov 2018</t>
-  </si>
-  <si>
-    <t>14 Nov 2018</t>
-  </si>
-  <si>
-    <t>[TDP Winter 2019 Sprint 2] 14 Nov 2018</t>
+    <t>Post a Job Widget</t>
+  </si>
+  <si>
+    <t>Post a Job</t>
+  </si>
+  <si>
+    <t>Review Recent Jobs</t>
+  </si>
+  <si>
+    <t>View All Jobs</t>
+  </si>
+  <si>
+    <t>Quick Views</t>
+  </si>
+  <si>
+    <t>Campaign Snapshot</t>
+  </si>
+  <si>
+    <t>Intake Snapshot</t>
+  </si>
+  <si>
+    <t>Saved and Recent Search Modules</t>
+  </si>
+  <si>
+    <t>Recent Searches for Insights</t>
+  </si>
+  <si>
+    <t>Saved Searches for Insights</t>
+  </si>
+  <si>
+    <t>Recent Searches for Candidates</t>
+  </si>
+  <si>
+    <t>View All Recent Searches</t>
+  </si>
+  <si>
+    <t>Saved Searches for Candidates</t>
+  </si>
+  <si>
+    <t>View All Saved Searches</t>
+  </si>
+  <si>
+    <t>Campaigns for Candidates</t>
+  </si>
+  <si>
+    <t>S&amp;D Module</t>
+  </si>
+  <si>
+    <t>S&amp;D Insights search</t>
+  </si>
+  <si>
+    <t>SelfReport module</t>
+  </si>
+  <si>
+    <t>Loading report list for manager users</t>
+  </si>
+  <si>
+    <t>[TDP Winter 2019 Sprint 2] 15 Nov 2018</t>
   </si>
 </sst>
 </file>
@@ -853,80 +844,74 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="21">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="10" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="10" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="10" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="10" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="10" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -939,7 +924,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -955,11 +940,11 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="3600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr b="1" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="3600" u="none">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -972,7 +957,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="3600" b="1"/>
+              <a:rPr b="1" lang="en-US" sz="3600"/>
               <a:t>Summary</a:t>
             </a:r>
           </a:p>
@@ -987,11 +972,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="3600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr b="1" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="3600" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1047,13 +1032,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr anchor="ctr" anchorCtr="1" bIns="19050" lIns="38100" rIns="38100" rot="0" spcFirstLastPara="1" tIns="19050" vert="horz" vertOverflow="ellipsis" wrap="square">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1081,7 +1066,7 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
@@ -1097,21 +1082,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Data Table'!$A$2:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>[TDP Winter 2019 Sprint 2] 07 Nov 2018</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>[TDP Winter 2019 Sprint 2] 09 Nov 2018</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>[TDP Winter 2019 Sprint 2] 14 Nov 2018</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1119,15 +1096,6 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.70646766169154229</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1173,13 +1141,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr anchor="ctr" anchorCtr="1" bIns="19050" lIns="38100" rIns="38100" rot="0" spcFirstLastPara="1" tIns="19050" vert="horz" vertOverflow="ellipsis" wrap="square">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1207,7 +1175,7 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
@@ -1223,21 +1191,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Data Table'!$A$2:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>[TDP Winter 2019 Sprint 2] 07 Nov 2018</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>[TDP Winter 2019 Sprint 2] 09 Nov 2018</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>[TDP Winter 2019 Sprint 2] 14 Nov 2018</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1245,15 +1205,6 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3.9800995024875621E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.4527363184079602E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.4626865671641784E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1296,13 +1247,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr anchor="ctr" anchorCtr="1" bIns="19050" lIns="38100" rIns="38100" rot="0" spcFirstLastPara="1" tIns="19050" vert="horz" vertOverflow="ellipsis" wrap="square">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1330,7 +1281,7 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
@@ -1346,21 +1297,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Data Table'!$A$2:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>[TDP Winter 2019 Sprint 2] 07 Nov 2018</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>[TDP Winter 2019 Sprint 2] 09 Nov 2018</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>[TDP Winter 2019 Sprint 2] 14 Nov 2018</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1368,15 +1311,6 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.975124378109453E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1044776119402985</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.482587064676617E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1419,13 +1353,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr anchor="ctr" anchorCtr="1" bIns="19050" lIns="38100" rIns="38100" rot="0" spcFirstLastPara="1" tIns="19050" vert="horz" vertOverflow="ellipsis" wrap="square">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1453,7 +1387,7 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
@@ -1469,21 +1403,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Data Table'!$A$2:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>[TDP Winter 2019 Sprint 2] 07 Nov 2018</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>[TDP Winter 2019 Sprint 2] 09 Nov 2018</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>[TDP Winter 2019 Sprint 2] 14 Nov 2018</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1491,15 +1417,6 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.20398009950248755</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13432835820895522</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1890547263681592</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1544,13 +1461,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr anchor="ctr" anchorCtr="1" bIns="19050" lIns="38100" rIns="38100" rot="0" spcFirstLastPara="1" tIns="19050" vert="horz" vertOverflow="ellipsis" wrap="square">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1578,7 +1495,7 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
@@ -1594,21 +1511,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Data Table'!$A$2:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>[TDP Winter 2019 Sprint 2] 07 Nov 2018</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>[TDP Winter 2019 Sprint 2] 09 Nov 2018</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>[TDP Winter 2019 Sprint 2] 14 Nov 2018</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1616,15 +1525,6 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.482587064676617E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1655,13 +1555,13 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="[$-409]d\-mmm\-yyyy;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1673,11 +1573,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1708,7 +1608,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -1732,11 +1632,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1774,11 +1674,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1802,7 +1702,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -1825,14 +1725,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1855,11 +1755,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1888,9 +1788,6 @@
               <c:f>'Data Table'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>[TDP Winter 2019 Sprint 2] 09 Nov 2018</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2008,13 +1905,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr anchor="ctr" anchorCtr="1" bIns="19050" lIns="38100" rIns="38100" rot="0" spcFirstLastPara="1" tIns="19050" vert="horz" vertOverflow="ellipsis" wrap="square">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2039,7 +1936,7 @@
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="35000"/>
@@ -2084,21 +1981,6 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.4527363184079602E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1044776119402985</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13432835820895522</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2139,11 +2021,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l" rtl="0">
-            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" lang="en-US" strike="noStrike" sz="900" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2174,7 +2056,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -2197,14 +2079,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2227,11 +2109,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2377,13 +2259,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr anchor="ctr" anchorCtr="1" bIns="19050" lIns="38100" rIns="38100" rot="0" spcFirstLastPara="1" tIns="19050" vert="horz" vertOverflow="ellipsis" wrap="square">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2408,7 +2290,7 @@
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="35000"/>
@@ -2493,11 +2375,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2528,7 +2410,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -2551,14 +2433,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2581,11 +2463,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2731,13 +2613,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr anchor="ctr" anchorCtr="1" bIns="19050" lIns="38100" rIns="38100" rot="0" spcFirstLastPara="1" tIns="19050" vert="horz" vertOverflow="ellipsis" wrap="square">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2762,7 +2644,7 @@
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="35000"/>
@@ -2847,11 +2729,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2882,7 +2764,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -2905,14 +2787,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2935,11 +2817,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3085,13 +2967,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr anchor="ctr" anchorCtr="1" bIns="19050" lIns="38100" rIns="38100" rot="0" spcFirstLastPara="1" tIns="19050" vert="horz" vertOverflow="ellipsis" wrap="square">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3116,7 +2998,7 @@
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="35000"/>
@@ -3201,11 +3083,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3236,7 +3118,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -3259,14 +3141,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3289,11 +3171,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="3600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr b="1" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="3600" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3330,7 +3212,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="60000"/>
@@ -3365,13 +3247,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr anchor="ctr" anchorCtr="1" bIns="19050" lIns="38100" rIns="38100" rot="0" spcFirstLastPara="1" tIns="19050" vert="horz" vertOverflow="ellipsis" wrap="square">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3399,7 +3281,7 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
@@ -3415,21 +3297,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Data Table'!$A$2:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>[TDP Winter 2019 Sprint 2] 07 Nov 2018</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>[TDP Winter 2019 Sprint 2] 09 Nov 2018</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>[TDP Winter 2019 Sprint 2] 14 Nov 2018</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3437,15 +3311,6 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3.9800995024875621E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.4527363184079602E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.4626865671641784E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3477,13 +3342,13 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="[$-409]d\-mmm\-yyyy;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -3495,11 +3360,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3530,7 +3395,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -3554,11 +3419,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3600,7 +3465,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -3623,14 +3488,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3646,11 +3511,11 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="3600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr b="1" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="3600" u="none">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3663,7 +3528,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="3600" b="1"/>
+              <a:rPr b="1" lang="en-US" sz="3600"/>
               <a:t>Failed After Re-Running</a:t>
             </a:r>
           </a:p>
@@ -3678,11 +3543,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="3600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr b="1" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="3600" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3719,7 +3584,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -3751,13 +3616,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr anchor="ctr" anchorCtr="1" bIns="19050" lIns="38100" rIns="38100" rot="0" spcFirstLastPara="1" tIns="19050" vert="horz" vertOverflow="ellipsis" wrap="square">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3785,7 +3650,7 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
@@ -3801,21 +3666,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Data Table'!$A$2:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>[TDP Winter 2019 Sprint 2] 07 Nov 2018</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>[TDP Winter 2019 Sprint 2] 09 Nov 2018</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>[TDP Winter 2019 Sprint 2] 14 Nov 2018</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3823,15 +3680,6 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.975124378109453E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1044776119402985</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.482587064676617E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3857,7 +3705,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -3889,13 +3737,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr anchor="ctr" anchorCtr="1" bIns="19050" lIns="38100" rIns="38100" rot="0" spcFirstLastPara="1" tIns="19050" vert="horz" vertOverflow="ellipsis" wrap="square">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3923,7 +3771,7 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
@@ -3939,21 +3787,13 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Data Table'!$A$2:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>[TDP Winter 2019 Sprint 2] 07 Nov 2018</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>[TDP Winter 2019 Sprint 2] 09 Nov 2018</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>[TDP Winter 2019 Sprint 2] 14 Nov 2018</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3961,15 +3801,6 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.20398009950248755</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13432835820895522</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1890547263681592</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4001,13 +3832,13 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="[$-409]d\-mmm\-yyyy;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -4019,11 +3850,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4054,7 +3885,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -4078,11 +3909,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4120,11 +3951,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4155,7 +3986,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -4178,14 +4009,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4208,11 +4039,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4241,9 +4072,6 @@
               <c:f>'Data Table'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>[TDP Winter 2019 Sprint 2] 07 Nov 2018</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4361,13 +4189,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr anchor="ctr" anchorCtr="1" bIns="19050" lIns="38100" rIns="38100" rot="0" spcFirstLastPara="1" tIns="19050" vert="horz" vertOverflow="ellipsis" wrap="square">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -4392,7 +4220,7 @@
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="35000"/>
@@ -4437,21 +4265,6 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.70646766169154229</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.9800995024875621E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.975124378109453E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.20398009950248755</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4492,11 +4305,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4527,7 +4340,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -4550,14 +4363,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4580,11 +4393,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4730,13 +4543,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr anchor="ctr" anchorCtr="1" bIns="19050" lIns="38100" rIns="38100" rot="0" spcFirstLastPara="1" tIns="19050" vert="horz" vertOverflow="ellipsis" wrap="square">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -4761,7 +4574,7 @@
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="35000"/>
@@ -4846,11 +4659,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4881,7 +4694,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -4904,14 +4717,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4934,11 +4747,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5084,13 +4897,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr anchor="ctr" anchorCtr="1" bIns="19050" lIns="38100" rIns="38100" rot="0" spcFirstLastPara="1" tIns="19050" vert="horz" vertOverflow="ellipsis" wrap="square">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -5115,7 +4928,7 @@
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="35000"/>
@@ -5200,11 +5013,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5235,7 +5048,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -5258,14 +5071,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5288,11 +5101,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5321,9 +5134,6 @@
               <c:f>'Data Table'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>[TDP Winter 2019 Sprint 2] 14 Nov 2018</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -5441,13 +5251,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr anchor="ctr" anchorCtr="1" bIns="19050" lIns="38100" rIns="38100" rot="0" spcFirstLastPara="1" tIns="19050" vert="horz" vertOverflow="ellipsis" wrap="square">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -5472,7 +5282,7 @@
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="35000"/>
@@ -5517,21 +5327,6 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.4626865671641784E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.482587064676617E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1890547263681592</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.482587064676617E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5572,11 +5367,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5607,7 +5402,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -5630,14 +5425,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5660,11 +5455,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5810,13 +5605,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr anchor="ctr" anchorCtr="1" bIns="19050" lIns="38100" rIns="38100" rot="0" spcFirstLastPara="1" tIns="19050" vert="horz" vertOverflow="ellipsis" wrap="square">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -5841,7 +5636,7 @@
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="35000"/>
@@ -5926,11 +5721,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5961,7 +5756,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -5984,14 +5779,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6014,11 +5809,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6164,13 +5959,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr anchor="ctr" anchorCtr="1" bIns="19050" lIns="38100" rIns="38100" rot="0" spcFirstLastPara="1" tIns="19050" vert="horz" vertOverflow="ellipsis" wrap="square">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -6195,7 +5990,7 @@
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="35000"/>
@@ -6280,11 +6075,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6315,7 +6110,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -6338,7 +6133,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13577,7 +13372,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -13618,7 +13413,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -13659,7 +13454,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -13700,7 +13495,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -13972,10 +13767,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -14010,7 +13805,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -14045,7 +13840,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -14139,21 +13934,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -14170,7 +13965,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -14222,23 +14017,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E07661C-7398-44FF-B84A-22EA52D99A0B}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E07661C-7398-44FF-B84A-22EA52D99A0B}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17" collapsed="1"/>
-    <col min="2" max="2" width="10" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="17" collapsed="1"/>
+    <col min="1" max="1" style="17" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="17" width="10.0" collapsed="true"/>
+    <col min="3" max="16384" style="17" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14254,18 +14051,18 @@
         <v>13</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>247</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3CD388-D703-4D3C-A1F7-89D03A429D44}">
-  <dimension ref="A1:I203"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3CD388-D703-4D3C-A1F7-89D03A429D44}">
+  <dimension ref="A1:F202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -14273,3538 +14070,1894 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="19" collapsed="1"/>
-    <col min="2" max="3" width="37.140625" style="19" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="13.85546875" style="19" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="13.7109375" style="19" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="19" collapsed="1"/>
+    <col min="1" max="1" style="19" width="9.140625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="19" width="37.140625" collapsed="true"/>
+    <col min="4" max="14" style="19" width="9.140625" collapsed="true"/>
+    <col min="15" max="16384" style="19" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row customFormat="1" r="1" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="H1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="22" t="e">
+      <c r="B2" s="20" t="e">
         <f>COUNTIF('Detail Info'!#REF!, "Passed on Sauce Lab")</f>
         <v>#REF!</v>
       </c>
-      <c r="C2" s="22" t="e">
+      <c r="C2" s="20" t="e">
         <f>COUNTIF('Detail Info'!#REF!, "Passed After Re-Running")</f>
         <v>#REF!</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="H2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3"/>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4">
       <c r="C4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4"/>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5">
       <c r="C5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E5"/>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5"/>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6">
       <c r="C6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E6"/>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7">
       <c r="C7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="E7"/>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="E8"/>
-      <c r="F8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9">
       <c r="C9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="E9"/>
-      <c r="F9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9"/>
-      <c r="H9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10">
       <c r="C10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
-      <c r="E10"/>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10"/>
-      <c r="H10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11">
       <c r="C11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
-      <c r="E11"/>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11"/>
-      <c r="H11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12">
       <c r="B12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12"/>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="B13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
-      <c r="E13"/>
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13"/>
-      <c r="H13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14">
       <c r="B14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="C15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="E15"/>
-      <c r="F15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15"/>
-      <c r="H15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16">
       <c r="C16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
       </c>
-      <c r="E16"/>
-      <c r="F16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16"/>
-      <c r="H16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17">
       <c r="C17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
       </c>
-      <c r="E17"/>
-      <c r="F17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17"/>
-      <c r="H17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18">
       <c r="C18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
       </c>
-      <c r="E18"/>
-      <c r="F18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18"/>
-      <c r="H18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19">
       <c r="B19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
       </c>
-      <c r="E19"/>
-      <c r="F19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19"/>
-      <c r="H19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20">
       <c r="B20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
       </c>
-      <c r="E20"/>
-      <c r="F20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20"/>
-      <c r="H20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21">
       <c r="C21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
       </c>
-      <c r="E21"/>
-      <c r="F21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21"/>
-      <c r="H21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22">
       <c r="B22" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
       </c>
-      <c r="E22"/>
-      <c r="F22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22"/>
-      <c r="H22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23">
       <c r="C23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
       </c>
-      <c r="E23"/>
-      <c r="F23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23"/>
-      <c r="H23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24">
       <c r="B24" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
       </c>
-      <c r="E24"/>
-      <c r="F24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24"/>
-      <c r="H24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25">
       <c r="C25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
       </c>
-      <c r="E25"/>
-      <c r="F25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25"/>
-      <c r="H25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26">
       <c r="B26" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
       </c>
-      <c r="E26"/>
-      <c r="F26" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26"/>
-      <c r="H26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27">
       <c r="C27" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
       </c>
-      <c r="E27"/>
-      <c r="F27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27"/>
-      <c r="H27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28">
       <c r="B28" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
       </c>
-      <c r="E28"/>
-      <c r="F28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28"/>
-      <c r="H28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29">
       <c r="C29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29"/>
-      <c r="F29" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29"/>
-      <c r="H29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="C30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
       </c>
-      <c r="E30"/>
-      <c r="F30" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30"/>
-      <c r="H30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31">
       <c r="C31" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31"/>
-      <c r="F31" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31"/>
-      <c r="H31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="B32" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
       </c>
-      <c r="E32"/>
-      <c r="F32" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32"/>
-      <c r="H32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33">
       <c r="B33" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
       </c>
-      <c r="E33"/>
-      <c r="F33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33"/>
-      <c r="H33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34">
       <c r="B34" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34"/>
-      <c r="F34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34"/>
-      <c r="H34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="B35" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
       </c>
-      <c r="E35"/>
-      <c r="F35" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35"/>
-      <c r="H35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36">
       <c r="C36" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
       </c>
-      <c r="E36"/>
-      <c r="F36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36"/>
-      <c r="H36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37">
       <c r="C37" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
       </c>
-      <c r="E37"/>
-      <c r="F37" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37"/>
-      <c r="H37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38">
       <c r="B38" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
       </c>
-      <c r="E38"/>
-      <c r="F38" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38"/>
-      <c r="H38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39">
       <c r="C39" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
       </c>
-      <c r="E39"/>
-      <c r="F39" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39"/>
-      <c r="H39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40">
       <c r="B40" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
       </c>
-      <c r="E40"/>
-      <c r="F40" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40"/>
-      <c r="H40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41">
       <c r="C41" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
       </c>
-      <c r="E41"/>
-      <c r="F41" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41"/>
-      <c r="H41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42">
       <c r="B42" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
       </c>
-      <c r="E42"/>
-      <c r="F42" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42"/>
-      <c r="H42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43">
       <c r="C43" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
       </c>
-      <c r="E43"/>
-      <c r="F43" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43"/>
-      <c r="H43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44">
       <c r="B44" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
         <v>4</v>
       </c>
-      <c r="E44"/>
-      <c r="F44" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44"/>
-      <c r="H44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45">
       <c r="C45" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
       </c>
-      <c r="E45"/>
-      <c r="F45" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45"/>
-      <c r="H45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46">
       <c r="B46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46"/>
-      <c r="F46" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46"/>
-      <c r="H46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="B47" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D47" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47"/>
-      <c r="F47" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47"/>
-      <c r="H47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="C48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
         <v>78</v>
       </c>
-      <c r="D48" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48"/>
-      <c r="F48" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48"/>
-      <c r="H48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49"/>
-      <c r="F49" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49"/>
-      <c r="H49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50"/>
-      <c r="F50" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50"/>
-      <c r="H50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>74</v>
-      </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D51" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51"/>
-      <c r="F51" t="s">
-        <v>4</v>
-      </c>
-      <c r="G51"/>
-      <c r="H51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="C52" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52"/>
-      <c r="F52" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52"/>
-      <c r="H52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="C53" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53"/>
-      <c r="F53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G53"/>
-      <c r="H53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="B54" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D54" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54"/>
-      <c r="F54" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54"/>
-      <c r="H54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="B55" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D55" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55"/>
-      <c r="F55" t="s">
-        <v>4</v>
-      </c>
-      <c r="G55"/>
-      <c r="H55" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="C56" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D56" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56"/>
-      <c r="F56" t="s">
-        <v>4</v>
-      </c>
-      <c r="G56"/>
-      <c r="H56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="C57" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57"/>
-      <c r="F57" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57"/>
-      <c r="H57" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="B58" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
       </c>
-      <c r="E58"/>
-      <c r="F58" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58"/>
-      <c r="H58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59">
       <c r="C59" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
       </c>
-      <c r="E59"/>
-      <c r="F59" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59"/>
-      <c r="H59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60">
       <c r="B60" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
         <v>94</v>
       </c>
-      <c r="D60" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60"/>
-      <c r="F60" t="s">
-        <v>4</v>
-      </c>
-      <c r="G60"/>
-      <c r="H60" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>90</v>
-      </c>
       <c r="C61" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D61" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61"/>
-      <c r="F61" t="s">
-        <v>4</v>
-      </c>
-      <c r="G61"/>
-      <c r="H61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="C62" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D62" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62"/>
-      <c r="F62" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62"/>
-      <c r="H62" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="B63" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
       </c>
-      <c r="E63"/>
-      <c r="F63" t="s">
-        <v>4</v>
-      </c>
-      <c r="G63"/>
-      <c r="H63" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64">
       <c r="C64" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D64" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64"/>
-      <c r="F64" t="s">
-        <v>4</v>
-      </c>
-      <c r="G64"/>
-      <c r="H64" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="C65" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65"/>
-      <c r="F65" t="s">
-        <v>4</v>
-      </c>
-      <c r="G65"/>
-      <c r="H65" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="B66" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66"/>
-      <c r="F66" t="s">
-        <v>4</v>
-      </c>
-      <c r="G66"/>
-      <c r="H66" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="C67" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D67" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67"/>
-      <c r="F67" t="s">
-        <v>4</v>
-      </c>
-      <c r="G67"/>
-      <c r="H67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="C68" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D68" t="s">
-        <v>4</v>
-      </c>
-      <c r="E68"/>
-      <c r="F68" t="s">
-        <v>4</v>
-      </c>
-      <c r="G68"/>
-      <c r="H68" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="C69" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D69" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69"/>
-      <c r="F69" t="s">
-        <v>4</v>
-      </c>
-      <c r="G69"/>
-      <c r="H69" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="B70" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C70" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D70" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70"/>
-      <c r="F70" t="s">
-        <v>4</v>
-      </c>
-      <c r="G70"/>
-      <c r="H70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="C71" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D71" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71"/>
-      <c r="F71" t="s">
-        <v>4</v>
-      </c>
-      <c r="G71"/>
-      <c r="H71" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="C72" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D72" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72"/>
-      <c r="F72" t="s">
-        <v>4</v>
-      </c>
-      <c r="G72"/>
-      <c r="H72" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="C73" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D73" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73"/>
-      <c r="F73" t="s">
-        <v>4</v>
-      </c>
-      <c r="G73"/>
-      <c r="H73" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="C74" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D74" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74"/>
-      <c r="F74" t="s">
-        <v>4</v>
-      </c>
-      <c r="G74"/>
-      <c r="H74" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="C75" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D75" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75"/>
-      <c r="F75" t="s">
-        <v>4</v>
-      </c>
-      <c r="G75"/>
-      <c r="H75" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="C76" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D76" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76"/>
-      <c r="F76" t="s">
-        <v>4</v>
-      </c>
-      <c r="G76"/>
-      <c r="H76" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="B77" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C77" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
       </c>
-      <c r="E77"/>
-      <c r="F77" t="s">
-        <v>4</v>
-      </c>
-      <c r="G77"/>
-      <c r="H77" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78">
       <c r="C78" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D78" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78"/>
-      <c r="F78" t="s">
-        <v>4</v>
-      </c>
-      <c r="G78"/>
-      <c r="H78" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="C79" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D79" t="s">
-        <v>4</v>
-      </c>
-      <c r="E79"/>
-      <c r="F79" t="s">
-        <v>4</v>
-      </c>
-      <c r="G79"/>
-      <c r="H79" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="C80" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D80" t="s">
         <v>4</v>
       </c>
-      <c r="E80"/>
-      <c r="F80" t="s">
-        <v>4</v>
-      </c>
-      <c r="G80"/>
-      <c r="H80" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81">
       <c r="C81" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D81" t="s">
         <v>4</v>
       </c>
-      <c r="E81"/>
-      <c r="F81" t="s">
-        <v>4</v>
-      </c>
-      <c r="G81"/>
-      <c r="H81" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82">
       <c r="C82" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D82" t="s">
         <v>4</v>
       </c>
-      <c r="E82"/>
-      <c r="F82" t="s">
-        <v>4</v>
-      </c>
-      <c r="G82"/>
-      <c r="H82" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83">
       <c r="C83" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D83" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83"/>
-      <c r="F83" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83"/>
-      <c r="H83" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="B84" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C84" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D84" t="s">
         <v>4</v>
       </c>
-      <c r="E84"/>
-      <c r="F84" t="s">
-        <v>4</v>
-      </c>
-      <c r="G84"/>
-      <c r="H84" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85">
       <c r="C85" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D85" t="s">
         <v>4</v>
       </c>
-      <c r="E85"/>
-      <c r="F85" t="s">
-        <v>4</v>
-      </c>
-      <c r="G85"/>
-      <c r="H85" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86">
       <c r="C86" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D86" t="s">
         <v>4</v>
       </c>
-      <c r="E86"/>
-      <c r="F86" t="s">
-        <v>4</v>
-      </c>
-      <c r="G86"/>
-      <c r="H86" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87">
       <c r="C87" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D87" t="s">
-        <v>4</v>
-      </c>
-      <c r="E87"/>
-      <c r="F87" t="s">
-        <v>4</v>
-      </c>
-      <c r="G87"/>
-      <c r="H87" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="C88" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D88" t="s">
-        <v>4</v>
-      </c>
-      <c r="E88"/>
-      <c r="F88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G88"/>
-      <c r="H88" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="C89" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D89" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89"/>
-      <c r="F89" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89"/>
-      <c r="H89" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="B90" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C90" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D90" t="s">
-        <v>4</v>
-      </c>
-      <c r="E90"/>
-      <c r="F90" t="s">
-        <v>4</v>
-      </c>
-      <c r="G90"/>
-      <c r="H90" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="C91" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91"/>
-      <c r="F91" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91"/>
-      <c r="H91" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="C92" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D92" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92"/>
-      <c r="F92" t="s">
-        <v>4</v>
-      </c>
-      <c r="G92"/>
-      <c r="H92" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="C93" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D93" t="s">
-        <v>4</v>
-      </c>
-      <c r="E93"/>
-      <c r="F93" t="s">
-        <v>4</v>
-      </c>
-      <c r="G93"/>
-      <c r="H93" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="C94" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D94" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94"/>
-      <c r="F94" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94"/>
-      <c r="H94" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="C95" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D95" t="s">
-        <v>4</v>
-      </c>
-      <c r="E95"/>
-      <c r="F95" t="s">
-        <v>4</v>
-      </c>
-      <c r="G95"/>
-      <c r="H95" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="C96" t="s">
+        <v>136</v>
+      </c>
+      <c r="D96" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="s">
+        <v>137</v>
+      </c>
+      <c r="D97" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="C98" t="s">
+        <v>138</v>
+      </c>
+      <c r="D98" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" t="s">
+        <v>140</v>
+      </c>
+      <c r="D99" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="C100" t="s">
+        <v>140</v>
+      </c>
+      <c r="D100" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" t="s">
+        <v>141</v>
+      </c>
+      <c r="D101" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C102" t="s">
+        <v>143</v>
+      </c>
+      <c r="D102" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="C103" t="s">
+        <v>144</v>
+      </c>
+      <c r="D103" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="C104" t="s">
+        <v>145</v>
+      </c>
+      <c r="D104" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" t="s">
+        <v>146</v>
+      </c>
+      <c r="D105" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106" t="s">
+        <v>147</v>
+      </c>
+      <c r="D106" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="C107" t="s">
+        <v>148</v>
+      </c>
+      <c r="D107" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="s">
+        <v>149</v>
+      </c>
+      <c r="C108" t="s">
+        <v>150</v>
+      </c>
+      <c r="D108" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="s">
         <v>132</v>
       </c>
-      <c r="D96" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96"/>
-      <c r="F96" t="s">
-        <v>8</v>
-      </c>
-      <c r="G96"/>
-      <c r="H96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
-        <v>133</v>
-      </c>
-      <c r="D97" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97"/>
-      <c r="F97" t="s">
-        <v>8</v>
-      </c>
-      <c r="G97"/>
-      <c r="H97" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C98" t="s">
-        <v>134</v>
-      </c>
-      <c r="D98" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98"/>
-      <c r="F98" t="s">
-        <v>8</v>
-      </c>
-      <c r="G98"/>
-      <c r="H98" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>135</v>
-      </c>
-      <c r="C99" t="s">
-        <v>136</v>
-      </c>
-      <c r="D99" t="s">
-        <v>4</v>
-      </c>
-      <c r="E99"/>
-      <c r="F99" t="s">
-        <v>4</v>
-      </c>
-      <c r="G99"/>
-      <c r="H99" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
-        <v>136</v>
-      </c>
-      <c r="D100" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100"/>
-      <c r="F100" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100"/>
-      <c r="H100" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
-        <v>137</v>
-      </c>
-      <c r="D101" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101"/>
-      <c r="F101" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101"/>
-      <c r="H101" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>138</v>
-      </c>
-      <c r="C102" t="s">
-        <v>139</v>
-      </c>
-      <c r="D102" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102"/>
-      <c r="F102" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102"/>
-      <c r="H102" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
-        <v>140</v>
-      </c>
-      <c r="D103" t="s">
-        <v>4</v>
-      </c>
-      <c r="E103"/>
-      <c r="F103" t="s">
-        <v>4</v>
-      </c>
-      <c r="G103"/>
-      <c r="H103" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C104" t="s">
-        <v>141</v>
-      </c>
-      <c r="D104" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104"/>
-      <c r="F104" t="s">
-        <v>8</v>
-      </c>
-      <c r="G104"/>
-      <c r="H104" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C105" t="s">
-        <v>142</v>
-      </c>
-      <c r="D105" t="s">
-        <v>4</v>
-      </c>
-      <c r="E105"/>
-      <c r="F105" t="s">
-        <v>4</v>
-      </c>
-      <c r="G105"/>
-      <c r="H105" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C106" t="s">
-        <v>143</v>
-      </c>
-      <c r="D106" t="s">
-        <v>4</v>
-      </c>
-      <c r="E106"/>
-      <c r="F106" t="s">
-        <v>4</v>
-      </c>
-      <c r="G106"/>
-      <c r="H106" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C107" t="s">
-        <v>144</v>
-      </c>
-      <c r="D107" t="s">
-        <v>4</v>
-      </c>
-      <c r="E107"/>
-      <c r="F107" t="s">
-        <v>4</v>
-      </c>
-      <c r="G107"/>
-      <c r="H107" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>145</v>
-      </c>
-      <c r="C108" t="s">
-        <v>146</v>
-      </c>
-      <c r="D108" t="s">
-        <v>4</v>
-      </c>
-      <c r="E108"/>
-      <c r="F108" t="s">
-        <v>4</v>
-      </c>
-      <c r="G108"/>
-      <c r="H108" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>128</v>
-      </c>
       <c r="C109" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D109" t="s">
-        <v>4</v>
-      </c>
-      <c r="E109"/>
-      <c r="F109" t="s">
-        <v>4</v>
-      </c>
-      <c r="G109"/>
-      <c r="H109" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110">
       <c r="C110" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D110" t="s">
-        <v>4</v>
-      </c>
-      <c r="E110"/>
-      <c r="F110" t="s">
-        <v>4</v>
-      </c>
-      <c r="G110"/>
-      <c r="H110" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111">
       <c r="C111" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
-      </c>
-      <c r="E111"/>
-      <c r="F111" t="s">
-        <v>8</v>
-      </c>
-      <c r="G111"/>
-      <c r="H111" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112">
       <c r="B112" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C112" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D112" t="s">
-        <v>4</v>
-      </c>
-      <c r="E112"/>
-      <c r="F112" t="s">
-        <v>4</v>
-      </c>
-      <c r="G112"/>
-      <c r="H112" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113">
       <c r="C113" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D113" t="s">
-        <v>4</v>
-      </c>
-      <c r="E113"/>
-      <c r="F113" t="s">
-        <v>4</v>
-      </c>
-      <c r="G113"/>
-      <c r="H113" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114">
       <c r="C114" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D114" t="s">
-        <v>4</v>
-      </c>
-      <c r="E114"/>
-      <c r="F114" t="s">
-        <v>4</v>
-      </c>
-      <c r="G114"/>
-      <c r="H114" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115">
       <c r="C115" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D115" t="s">
         <v>4</v>
       </c>
-      <c r="E115"/>
-      <c r="F115" t="s">
+    </row>
+    <row r="116">
+      <c r="C116" t="s">
+        <v>158</v>
+      </c>
+      <c r="D116" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="C117" t="s">
+        <v>159</v>
+      </c>
+      <c r="D117" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="C118" t="s">
+        <v>160</v>
+      </c>
+      <c r="D118" t="s">
         <v>4</v>
       </c>
-      <c r="G115"/>
-      <c r="H115" t="s">
+    </row>
+    <row r="119">
+      <c r="C119" t="s">
+        <v>161</v>
+      </c>
+      <c r="D119" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C116" t="s">
-        <v>154</v>
-      </c>
-      <c r="D116" t="s">
-        <v>4</v>
-      </c>
-      <c r="E116"/>
-      <c r="F116" t="s">
-        <v>4</v>
-      </c>
-      <c r="G116"/>
-      <c r="H116" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C117" t="s">
-        <v>155</v>
-      </c>
-      <c r="D117" t="s">
-        <v>4</v>
-      </c>
-      <c r="E117"/>
-      <c r="F117" t="s">
-        <v>4</v>
-      </c>
-      <c r="G117"/>
-      <c r="H117" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C118" t="s">
-        <v>156</v>
-      </c>
-      <c r="D118" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118"/>
-      <c r="F118" t="s">
-        <v>8</v>
-      </c>
-      <c r="G118"/>
-      <c r="H118" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C119" t="s">
-        <v>157</v>
-      </c>
-      <c r="D119" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119"/>
-      <c r="F119" t="s">
-        <v>8</v>
-      </c>
-      <c r="G119"/>
-      <c r="H119" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="120">
       <c r="B120" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C120" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D120" t="s">
-        <v>4</v>
-      </c>
-      <c r="E120"/>
-      <c r="F120" t="s">
-        <v>4</v>
-      </c>
-      <c r="G120"/>
-      <c r="H120" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121">
       <c r="C121" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D121" t="s">
-        <v>4</v>
-      </c>
-      <c r="E121"/>
-      <c r="F121" t="s">
-        <v>4</v>
-      </c>
-      <c r="G121"/>
-      <c r="H121" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122">
       <c r="C122" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D122" t="s">
-        <v>4</v>
-      </c>
-      <c r="E122"/>
-      <c r="F122" t="s">
-        <v>4</v>
-      </c>
-      <c r="G122"/>
-      <c r="H122" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123">
       <c r="C123" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D123" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123"/>
-      <c r="F123" t="s">
-        <v>8</v>
-      </c>
-      <c r="G123"/>
-      <c r="H123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="124">
       <c r="B124" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C124" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D124" t="s">
-        <v>4</v>
-      </c>
-      <c r="E124"/>
-      <c r="F124" t="s">
-        <v>4</v>
-      </c>
-      <c r="G124"/>
-      <c r="H124" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125">
       <c r="C125" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D125" t="s">
-        <v>4</v>
-      </c>
-      <c r="E125"/>
-      <c r="F125" t="s">
-        <v>4</v>
-      </c>
-      <c r="G125"/>
-      <c r="H125" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="126">
       <c r="B126" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C126" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D126" t="s">
-        <v>4</v>
-      </c>
-      <c r="E126"/>
-      <c r="F126" t="s">
-        <v>4</v>
-      </c>
-      <c r="G126"/>
-      <c r="H126" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127">
       <c r="B127" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C127" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D127" t="s">
-        <v>4</v>
-      </c>
-      <c r="E127"/>
-      <c r="F127" t="s">
-        <v>4</v>
-      </c>
-      <c r="G127"/>
-      <c r="H127" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128">
       <c r="C128" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D128" t="s">
-        <v>4</v>
-      </c>
-      <c r="E128"/>
-      <c r="F128" t="s">
-        <v>4</v>
-      </c>
-      <c r="G128"/>
-      <c r="H128" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129">
       <c r="C129" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D129" t="s">
-        <v>4</v>
-      </c>
-      <c r="E129"/>
-      <c r="F129" t="s">
-        <v>4</v>
-      </c>
-      <c r="G129"/>
-      <c r="H129" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130">
       <c r="C130" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D130" t="s">
-        <v>4</v>
-      </c>
-      <c r="E130"/>
-      <c r="F130" t="s">
-        <v>4</v>
-      </c>
-      <c r="G130"/>
-      <c r="H130" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131">
       <c r="C131" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D131" t="s">
         <v>4</v>
       </c>
-      <c r="E131"/>
-      <c r="F131" t="s">
-        <v>4</v>
-      </c>
-      <c r="G131"/>
-      <c r="H131" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132">
       <c r="B132" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C132" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D132" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132"/>
-      <c r="F132" t="s">
-        <v>5</v>
-      </c>
-      <c r="G132"/>
-      <c r="H132" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133">
       <c r="B133" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D133" t="s">
-        <v>8</v>
-      </c>
-      <c r="E133"/>
-      <c r="F133" t="s">
-        <v>5</v>
-      </c>
-      <c r="G133"/>
-      <c r="H133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134">
       <c r="B134" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C134" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D134" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134"/>
-      <c r="F134" t="s">
-        <v>5</v>
-      </c>
-      <c r="G134"/>
-      <c r="H134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135">
       <c r="C135" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D135" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135"/>
-      <c r="F135" t="s">
-        <v>5</v>
-      </c>
-      <c r="G135"/>
-      <c r="H135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136">
       <c r="C136" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D136" t="s">
         <v>4</v>
       </c>
-      <c r="E136"/>
-      <c r="F136" t="s">
-        <v>4</v>
-      </c>
-      <c r="G136"/>
-      <c r="H136" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137">
       <c r="B137" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D137" t="s">
-        <v>8</v>
-      </c>
-      <c r="E137"/>
-      <c r="F137" t="s">
-        <v>8</v>
-      </c>
-      <c r="G137"/>
-      <c r="H137" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138">
       <c r="C138" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D138" t="s">
-        <v>5</v>
-      </c>
-      <c r="E138"/>
-      <c r="F138" t="s">
-        <v>8</v>
-      </c>
-      <c r="G138"/>
-      <c r="H138" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139">
       <c r="B139" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D139" t="s">
-        <v>5</v>
-      </c>
-      <c r="E139"/>
-      <c r="F139" t="s">
-        <v>8</v>
-      </c>
-      <c r="G139"/>
-      <c r="H139" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140">
       <c r="C140" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D140" t="s">
-        <v>5</v>
-      </c>
-      <c r="E140"/>
-      <c r="F140" t="s">
-        <v>8</v>
-      </c>
-      <c r="G140"/>
-      <c r="H140" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141">
       <c r="B141" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D141" t="s">
-        <v>5</v>
-      </c>
-      <c r="E141"/>
-      <c r="F141" t="s">
-        <v>8</v>
-      </c>
-      <c r="G141"/>
-      <c r="H141" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142">
       <c r="C142" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D142" t="s">
-        <v>5</v>
-      </c>
-      <c r="E142"/>
-      <c r="F142" t="s">
-        <v>5</v>
-      </c>
-      <c r="G142"/>
-      <c r="H142" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="143">
       <c r="B143" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C143" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D143" t="s">
-        <v>5</v>
-      </c>
-      <c r="E143"/>
-      <c r="F143" t="s">
-        <v>5</v>
-      </c>
-      <c r="G143"/>
-      <c r="H143" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="144">
       <c r="B144" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D144" t="s">
-        <v>5</v>
-      </c>
-      <c r="E144"/>
-      <c r="F144" t="s">
-        <v>8</v>
-      </c>
-      <c r="G144"/>
-      <c r="H144" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="145">
       <c r="B145" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C145" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D145" t="s">
-        <v>5</v>
-      </c>
-      <c r="E145"/>
-      <c r="F145" t="s">
-        <v>8</v>
-      </c>
-      <c r="G145"/>
-      <c r="H145" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="146">
       <c r="B146" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D146" t="s">
-        <v>5</v>
-      </c>
-      <c r="E146"/>
-      <c r="F146" t="s">
-        <v>8</v>
-      </c>
-      <c r="G146"/>
-      <c r="H146" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147">
       <c r="B147" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D147" t="s">
-        <v>5</v>
-      </c>
-      <c r="E147"/>
-      <c r="F147" t="s">
-        <v>5</v>
-      </c>
-      <c r="G147"/>
-      <c r="H147" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148">
       <c r="C148" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D148" t="s">
-        <v>5</v>
-      </c>
-      <c r="E148"/>
-      <c r="F148" t="s">
-        <v>8</v>
-      </c>
-      <c r="G148"/>
-      <c r="H148" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149">
       <c r="B149" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D149" t="s">
-        <v>5</v>
-      </c>
-      <c r="E149"/>
-      <c r="F149" t="s">
-        <v>5</v>
-      </c>
-      <c r="G149"/>
-      <c r="H149" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150">
       <c r="B150" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D150" t="s">
-        <v>5</v>
-      </c>
-      <c r="E150"/>
-      <c r="F150" t="s">
-        <v>5</v>
-      </c>
-      <c r="G150"/>
-      <c r="H150" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151">
       <c r="B151" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D151" t="s">
-        <v>5</v>
-      </c>
-      <c r="E151"/>
-      <c r="F151" t="s">
-        <v>5</v>
-      </c>
-      <c r="G151"/>
-      <c r="H151" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="152">
       <c r="C152" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D152" t="s">
-        <v>5</v>
-      </c>
-      <c r="E152"/>
-      <c r="F152" t="s">
-        <v>5</v>
-      </c>
-      <c r="G152"/>
-      <c r="H152" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153">
       <c r="B153" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D153" t="s">
-        <v>5</v>
-      </c>
-      <c r="E153"/>
-      <c r="F153" t="s">
-        <v>5</v>
-      </c>
-      <c r="G153"/>
-      <c r="H153" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154">
       <c r="C154" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D154" t="s">
-        <v>5</v>
-      </c>
-      <c r="E154"/>
-      <c r="F154" t="s">
-        <v>5</v>
-      </c>
-      <c r="G154"/>
-      <c r="H154" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155">
       <c r="B155" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D155" t="s">
-        <v>5</v>
-      </c>
-      <c r="E155"/>
-      <c r="F155" t="s">
-        <v>5</v>
-      </c>
-      <c r="G155"/>
-      <c r="H155" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="156">
       <c r="B156" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D156" t="s">
-        <v>5</v>
-      </c>
-      <c r="E156"/>
-      <c r="F156" t="s">
-        <v>5</v>
-      </c>
-      <c r="G156"/>
-      <c r="H156" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="157">
       <c r="B157" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D157" t="s">
-        <v>5</v>
-      </c>
-      <c r="E157"/>
-      <c r="F157" t="s">
-        <v>5</v>
-      </c>
-      <c r="G157"/>
-      <c r="H157" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158">
       <c r="B158" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C158" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D158" t="s">
-        <v>5</v>
-      </c>
-      <c r="E158"/>
-      <c r="F158" t="s">
-        <v>5</v>
-      </c>
-      <c r="G158"/>
-      <c r="H158" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159">
       <c r="C159" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D159" t="s">
-        <v>5</v>
-      </c>
-      <c r="E159"/>
-      <c r="F159" t="s">
-        <v>5</v>
-      </c>
-      <c r="G159"/>
-      <c r="H159" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160">
       <c r="B160" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C160" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D160" t="s">
-        <v>5</v>
-      </c>
-      <c r="E160"/>
-      <c r="F160" t="s">
-        <v>5</v>
-      </c>
-      <c r="G160"/>
-      <c r="H160" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="161">
       <c r="C161" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D161" t="s">
-        <v>5</v>
-      </c>
-      <c r="E161"/>
-      <c r="F161" t="s">
-        <v>5</v>
-      </c>
-      <c r="G161"/>
-      <c r="H161" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162">
       <c r="B162" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C162" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D162" t="s">
-        <v>5</v>
-      </c>
-      <c r="E162"/>
-      <c r="F162" t="s">
-        <v>5</v>
-      </c>
-      <c r="G162"/>
-      <c r="H162" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163">
       <c r="C163" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D163" t="s">
-        <v>5</v>
-      </c>
-      <c r="E163"/>
-      <c r="F163" t="s">
-        <v>5</v>
-      </c>
-      <c r="G163"/>
-      <c r="H163" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164">
       <c r="C164" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D164" t="s">
-        <v>5</v>
-      </c>
-      <c r="E164"/>
-      <c r="F164" t="s">
-        <v>5</v>
-      </c>
-      <c r="G164"/>
-      <c r="H164" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="165">
       <c r="B165" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C165" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D165" t="s">
-        <v>5</v>
-      </c>
-      <c r="E165"/>
-      <c r="F165" t="s">
-        <v>5</v>
-      </c>
-      <c r="G165"/>
-      <c r="H165" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="166">
       <c r="C166" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D166" t="s">
-        <v>5</v>
-      </c>
-      <c r="E166"/>
-      <c r="F166" t="s">
-        <v>5</v>
-      </c>
-      <c r="G166"/>
-      <c r="H166" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="167">
       <c r="B167" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C167" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D167" t="s">
-        <v>5</v>
-      </c>
-      <c r="E167"/>
-      <c r="F167" t="s">
-        <v>5</v>
-      </c>
-      <c r="G167"/>
-      <c r="H167" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="168">
       <c r="C168" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D168" t="s">
-        <v>5</v>
-      </c>
-      <c r="E168"/>
-      <c r="F168" t="s">
-        <v>5</v>
-      </c>
-      <c r="G168"/>
-      <c r="H168" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="169">
       <c r="B169" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C169" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D169" t="s">
         <v>4</v>
       </c>
-      <c r="E169"/>
-      <c r="F169" t="s">
-        <v>4</v>
-      </c>
-      <c r="G169"/>
-      <c r="H169" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170">
       <c r="C170" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D170" t="s">
         <v>4</v>
       </c>
-      <c r="E170"/>
-      <c r="F170" t="s">
-        <v>4</v>
-      </c>
-      <c r="G170"/>
-      <c r="H170" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171">
       <c r="C171" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D171" t="s">
         <v>4</v>
       </c>
-      <c r="E171"/>
-      <c r="F171" t="s">
-        <v>4</v>
-      </c>
-      <c r="G171"/>
-      <c r="H171" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172">
       <c r="B172" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C172" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D172" t="s">
-        <v>5</v>
-      </c>
-      <c r="E172"/>
-      <c r="F172" t="s">
-        <v>6</v>
-      </c>
-      <c r="G172"/>
-      <c r="H172" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173">
       <c r="B173" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C173" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D173" t="s">
-        <v>5</v>
-      </c>
-      <c r="E173"/>
-      <c r="F173" t="s">
-        <v>6</v>
-      </c>
-      <c r="G173"/>
-      <c r="H173" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="174">
       <c r="B174" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C174" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D174" t="s">
-        <v>5</v>
-      </c>
-      <c r="E174"/>
-      <c r="F174" t="s">
-        <v>6</v>
-      </c>
-      <c r="G174"/>
-      <c r="H174" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="175">
       <c r="C175" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D175" t="s">
-        <v>5</v>
-      </c>
-      <c r="E175"/>
-      <c r="F175" t="s">
-        <v>6</v>
-      </c>
-      <c r="G175"/>
-      <c r="H175" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="176">
       <c r="B176" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C176" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D176" t="s">
-        <v>5</v>
-      </c>
-      <c r="E176"/>
-      <c r="F176" t="s">
-        <v>6</v>
-      </c>
-      <c r="G176"/>
-      <c r="H176" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="177">
       <c r="B177" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C177" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D177" t="s">
-        <v>5</v>
-      </c>
-      <c r="E177"/>
-      <c r="F177" t="s">
-        <v>6</v>
-      </c>
-      <c r="G177"/>
-      <c r="H177" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="178">
       <c r="B178" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C178" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D178" t="s">
-        <v>5</v>
-      </c>
-      <c r="E178"/>
-      <c r="F178" t="s">
-        <v>6</v>
-      </c>
-      <c r="G178"/>
-      <c r="H178" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="179">
       <c r="C179" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D179" t="s">
-        <v>6</v>
-      </c>
-      <c r="E179"/>
-      <c r="F179" t="s">
-        <v>6</v>
-      </c>
-      <c r="G179"/>
-      <c r="H179" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="180">
       <c r="C180" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D180" t="s">
-        <v>6</v>
-      </c>
-      <c r="E180"/>
-      <c r="F180" t="s">
-        <v>6</v>
-      </c>
-      <c r="G180"/>
-      <c r="H180" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="181">
       <c r="C181" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D181" t="s">
-        <v>6</v>
-      </c>
-      <c r="E181"/>
-      <c r="F181" t="s">
-        <v>6</v>
-      </c>
-      <c r="G181"/>
-      <c r="H181" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="182">
       <c r="B182" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C182" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D182" t="s">
-        <v>4</v>
-      </c>
-      <c r="E182"/>
-      <c r="F182" t="s">
-        <v>4</v>
-      </c>
-      <c r="G182"/>
-      <c r="H182" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="183">
       <c r="B183" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C183" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D183" t="s">
-        <v>4</v>
-      </c>
-      <c r="E183"/>
-      <c r="F183" t="s">
-        <v>4</v>
-      </c>
-      <c r="G183"/>
-      <c r="H183" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="184">
       <c r="B184" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C184" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D184" t="s">
         <v>4</v>
       </c>
-      <c r="E184"/>
-      <c r="F184" t="s">
-        <v>4</v>
-      </c>
-      <c r="G184"/>
-      <c r="H184" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185">
       <c r="B185" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C185" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D185" t="s">
-        <v>4</v>
-      </c>
-      <c r="E185"/>
-      <c r="F185" t="s">
-        <v>4</v>
-      </c>
-      <c r="G185"/>
-      <c r="H185" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="186">
       <c r="B186" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C186" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D186" t="s">
         <v>4</v>
       </c>
-      <c r="E186"/>
-      <c r="F186" t="s">
+    </row>
+    <row r="187">
+      <c r="B187" t="s">
+        <v>224</v>
+      </c>
+      <c r="C187" t="s">
+        <v>225</v>
+      </c>
+      <c r="D187" t="s">
         <v>4</v>
       </c>
-      <c r="G186"/>
-      <c r="H186" t="s">
+    </row>
+    <row r="188">
+      <c r="C188" t="s">
+        <v>226</v>
+      </c>
+      <c r="D188" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="s">
+        <v>227</v>
+      </c>
+      <c r="C189" t="s">
+        <v>228</v>
+      </c>
+      <c r="D189" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="C190" t="s">
+        <v>229</v>
+      </c>
+      <c r="D190" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
-        <v>219</v>
-      </c>
-      <c r="C187" t="s">
-        <v>219</v>
-      </c>
-      <c r="D187" t="s">
-        <v>6</v>
-      </c>
-      <c r="E187"/>
-      <c r="F187" t="s">
-        <v>6</v>
-      </c>
-      <c r="G187"/>
-      <c r="H187" t="s">
+    <row r="191">
+      <c r="C191" t="s">
+        <v>230</v>
+      </c>
+      <c r="D191" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
-        <v>220</v>
-      </c>
-      <c r="C188" t="s">
-        <v>221</v>
-      </c>
-      <c r="D188" t="s">
-        <v>4</v>
-      </c>
-      <c r="E188"/>
-      <c r="F188" t="s">
-        <v>4</v>
-      </c>
-      <c r="G188"/>
-      <c r="H188" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C189" t="s">
-        <v>222</v>
-      </c>
-      <c r="D189" t="s">
-        <v>6</v>
-      </c>
-      <c r="E189"/>
-      <c r="F189" t="s">
-        <v>6</v>
-      </c>
-      <c r="G189"/>
-      <c r="H189" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
-        <v>223</v>
-      </c>
-      <c r="C190" t="s">
-        <v>224</v>
-      </c>
-      <c r="D190" t="s">
-        <v>6</v>
-      </c>
-      <c r="E190"/>
-      <c r="F190" t="s">
-        <v>6</v>
-      </c>
-      <c r="G190"/>
-      <c r="H190" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C191" t="s">
-        <v>225</v>
-      </c>
-      <c r="D191" t="s">
-        <v>6</v>
-      </c>
-      <c r="E191"/>
-      <c r="F191" t="s">
-        <v>6</v>
-      </c>
-      <c r="G191"/>
-      <c r="H191" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="192">
+      <c r="B192" t="s">
+        <v>231</v>
+      </c>
       <c r="C192" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D192" t="s">
-        <v>11</v>
-      </c>
-      <c r="E192"/>
-      <c r="F192" t="s">
-        <v>6</v>
-      </c>
-      <c r="G192"/>
-      <c r="H192" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
-        <v>227</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="193">
       <c r="C193" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D193" t="s">
-        <v>11</v>
-      </c>
-      <c r="E193"/>
-      <c r="F193" t="s">
-        <v>6</v>
-      </c>
-      <c r="G193"/>
-      <c r="H193" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="s">
+        <v>234</v>
+      </c>
       <c r="C194" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D194" t="s">
-        <v>11</v>
-      </c>
-      <c r="E194"/>
-      <c r="F194" t="s">
-        <v>6</v>
-      </c>
-      <c r="G194"/>
-      <c r="H194" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
-        <v>230</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="195">
       <c r="C195" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D195" t="s">
-        <v>11</v>
-      </c>
-      <c r="E195"/>
-      <c r="F195" t="s">
-        <v>6</v>
-      </c>
-      <c r="G195"/>
-      <c r="H195" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="196">
       <c r="C196" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D196" t="s">
-        <v>11</v>
-      </c>
-      <c r="E196"/>
-      <c r="F196" t="s">
-        <v>6</v>
-      </c>
-      <c r="G196"/>
-      <c r="H196" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="197">
       <c r="C197" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D197" t="s">
-        <v>11</v>
-      </c>
-      <c r="E197"/>
-      <c r="F197" t="s">
-        <v>6</v>
-      </c>
-      <c r="G197"/>
-      <c r="H197" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="198">
       <c r="C198" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D198" t="s">
-        <v>4</v>
-      </c>
-      <c r="E198"/>
-      <c r="F198" t="s">
-        <v>4</v>
-      </c>
-      <c r="G198"/>
-      <c r="H198" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="199">
       <c r="C199" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D199" t="s">
         <v>4</v>
       </c>
-      <c r="E199"/>
-      <c r="F199" t="s">
-        <v>4</v>
-      </c>
-      <c r="G199"/>
-      <c r="H199" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200">
       <c r="C200" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D200" t="s">
-        <v>4</v>
-      </c>
-      <c r="E200"/>
-      <c r="F200" t="s">
-        <v>4</v>
-      </c>
-      <c r="G200"/>
-      <c r="H200" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" t="s">
+        <v>242</v>
+      </c>
       <c r="C201" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D201" t="s">
-        <v>4</v>
-      </c>
-      <c r="E201"/>
-      <c r="F201" t="s">
-        <v>4</v>
-      </c>
-      <c r="G201"/>
-      <c r="H201" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="202">
       <c r="B202" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C202" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D202" t="s">
-        <v>11</v>
-      </c>
-      <c r="E202"/>
-      <c r="F202" t="s">
-        <v>6</v>
-      </c>
-      <c r="G202"/>
-      <c r="H202" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
-        <v>240</v>
-      </c>
-      <c r="C203" t="s">
-        <v>241</v>
-      </c>
-      <c r="D203" t="s">
-        <v>4</v>
-      </c>
-      <c r="E203"/>
-      <c r="F203" t="s">
-        <v>4</v>
-      </c>
-      <c r="G203"/>
-      <c r="H203" t="s">
         <v>4</v>
       </c>
     </row>
@@ -17814,36 +15967,36 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA418AD-BC3E-408D-8F5D-B8DAF89FD2B6}">
-  <dimension ref="A1:N11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA418AD-BC3E-408D-8F5D-B8DAF89FD2B6}">
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.140625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="9" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="9" style="12" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="6" collapsed="1"/>
-    <col min="9" max="9" width="9.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="9" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9" style="7" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.140625" style="3" collapsed="1"/>
-    <col min="15" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="12" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="12" width="12.140625" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" style="12" width="9.0" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="12" width="9.0" collapsed="true"/>
+    <col min="8" max="8" style="6" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="7" width="9.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="7" width="12.140625" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" style="7" width="9.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="7" width="9.0" collapsed="true"/>
+    <col min="14" max="14" style="3" width="9.140625" collapsed="true"/>
+    <col min="15" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -17870,183 +16023,95 @@
         <v>Passed on Sauce Lab</v>
       </c>
       <c r="J1" s="4" t="str">
-        <f t="shared" ref="J1:M1" si="0">C1</f>
+        <f ref="J1:M1" si="0" t="shared">C1</f>
         <v>Passed After Re-Running</v>
       </c>
       <c r="K1" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>Failed By Bug</v>
       </c>
       <c r="L1" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>Failed By Script</v>
       </c>
       <c r="M1" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>Not Run on Sauce Lab</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="B2" s="10">
-        <f>COUNTIF('Detail Info'!H:H, "Passed on Sauce Lab")</f>
-        <v>142</v>
+        <f>COUNTIF('Detail Info'!D:D, "Passed on Sauce Lab")</f>
       </c>
       <c r="C2" s="10">
-        <f>COUNTIF('Detail Info'!H:H, "Passed After Re-Running")</f>
-        <v>8</v>
+        <f>COUNTIF('Detail Info'!D:D, "Passed After Re-Running")</f>
       </c>
       <c r="D2" s="10">
-        <f>COUNTIF('Detail Info'!H:H, "Failed By Bug")</f>
-        <v>10</v>
+        <f>COUNTIF('Detail Info'!D:D, "Failed By Bug")</f>
       </c>
       <c r="E2" s="10">
-        <f>COUNTIF('Detail Info'!H:H, "Failed By Script")</f>
-        <v>41</v>
+        <f>COUNTIF('Detail Info'!D:D, "Failed By Script")</f>
       </c>
       <c r="F2" s="10">
-        <f>COUNTIF('Detail Info'!H:H, "Not Run on Sauce Lab")</f>
-        <v>0</v>
+        <f>COUNTIF('Detail Info'!D:D, "Not Run on Sauce Lab")</f>
       </c>
       <c r="G2" s="14">
         <f>COUNTA('Detail Info'!C:C)-2</f>
-        <v>201</v>
       </c>
       <c r="I2" s="13">
         <f>B2/G2</f>
-        <v>0.70646766169154229</v>
       </c>
       <c r="J2" s="13">
         <f>C2/G2</f>
-        <v>3.9800995024875621E-2</v>
       </c>
       <c r="K2" s="13">
         <f>D2/G2</f>
-        <v>4.975124378109453E-2</v>
       </c>
       <c r="L2" s="13">
         <f>E2/G2</f>
-        <v>0.20398009950248755</v>
       </c>
       <c r="M2" s="13">
         <f>F2/G2</f>
-        <v>0</v>
       </c>
       <c r="N2" s="13">
         <f>SUM(I2:M2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B3" s="10">
-        <f>COUNTIF('Detail Info'!F:F, "Passed on Sauce Lab")</f>
-        <v>134</v>
-      </c>
-      <c r="C3" s="10">
-        <f>COUNTIF('Detail Info'!F:F, "Passed After Re-Running")</f>
-        <v>19</v>
-      </c>
-      <c r="D3" s="10">
-        <f>COUNTIF('Detail Info'!F:F, "Failed By Bug")</f>
-        <v>21</v>
-      </c>
-      <c r="E3" s="10">
-        <f>COUNTIF('Detail Info'!F:F, "Failed By Script")</f>
-        <v>27</v>
-      </c>
-      <c r="F3" s="10">
-        <f>COUNTIF('Detail Info'!F:F, "Not Run on Sauce Lab")</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="14">
-        <f>COUNTA('Detail Info'!C:C)-2</f>
-        <v>201</v>
-      </c>
-      <c r="I3" s="13">
-        <f>B3/G3</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J3" s="13">
-        <f>C3/G3</f>
-        <v>9.4527363184079602E-2</v>
-      </c>
-      <c r="K3" s="13">
-        <f>D3/G3</f>
-        <v>0.1044776119402985</v>
-      </c>
-      <c r="L3" s="13">
-        <f>E3/G3</f>
-        <v>0.13432835820895522</v>
-      </c>
-      <c r="M3" s="13">
-        <f>F3/G3</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="13">
-        <f>SUM(I3:M3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B4" s="10">
-        <f>COUNTIF('Detail Info'!D:D, "Passed on Sauce Lab")</f>
-        <v>134</v>
-      </c>
-      <c r="C4" s="10">
-        <f>COUNTIF('Detail Info'!D:D, "Passed After Re-Running")</f>
-        <v>15</v>
-      </c>
-      <c r="D4" s="10">
-        <f>COUNTIF('Detail Info'!D:D, "Failed By Bug")</f>
-        <v>7</v>
-      </c>
-      <c r="E4" s="10">
-        <f>COUNTIF('Detail Info'!D:D, "Failed By Script")</f>
-        <v>38</v>
-      </c>
-      <c r="F4" s="10">
-        <f>COUNTIF('Detail Info'!D:D, "Not Run on Sauce Lab")</f>
-        <v>7</v>
-      </c>
-      <c r="G4" s="14">
-        <f>COUNTA('Detail Info'!C:C)-2</f>
-        <v>201</v>
-      </c>
-      <c r="I4" s="13">
-        <f>B4/G4</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J4" s="13">
-        <f>C4/G4</f>
-        <v>7.4626865671641784E-2</v>
-      </c>
-      <c r="K4" s="13">
-        <f>D4/G4</f>
-        <v>3.482587064676617E-2</v>
-      </c>
-      <c r="L4" s="13">
-        <f>E4/G4</f>
-        <v>0.1890547263681592</v>
-      </c>
-      <c r="M4" s="13">
-        <f>F4/G4</f>
-        <v>3.482587064676617E-2</v>
-      </c>
-      <c r="N4" s="13">
-        <f>SUM(I4:M4)</f>
-        <v>0.99999999999999989</v>
-      </c>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="14"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="14"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -18154,13 +16219,13 @@
       <c r="N11" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1143935-24CF-4E8D-9B0A-7AA9085B9B12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1143935-24CF-4E8D-9B0A-7AA9085B9B12}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -18169,14 +16234,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA7C003-0F94-44B4-974F-C4CC54EC9657}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA7C003-0F94-44B4-974F-C4CC54EC9657}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
@@ -18190,13 +16255,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF4BE94-9A7E-44E6-A17F-B80E254CD521}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF4BE94-9A7E-44E6-A17F-B80E254CD521}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18205,22 +16270,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91F74F2-2A32-492A-80B6-374AB75D8E01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91F74F2-2A32-492A-80B6-374AB75D8E01}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>